--- a/HOAc work/Ni(110)/all/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/all/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>H2</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>shift</t>
+  </si>
+  <si>
+    <t>divide by 3</t>
   </si>
 </sst>
 </file>
@@ -7256,16 +7259,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>149628</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>191192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>290946</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>8312</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8242,15 +8245,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N219"/>
+  <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8284,8 +8287,11 @@
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -8322,8 +8328,23 @@
       <c r="N2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>0.04</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>104</v>
       </c>
@@ -8360,8 +8381,28 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f>P2/$T$2</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:T3" si="0">Q2/$T$2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>106.8</v>
       </c>
@@ -8381,7 +8422,7 @@
         <v>3528.0898400801038</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>109.6</v>
       </c>
@@ -8419,7 +8460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>112.3</v>
       </c>
@@ -8442,11 +8483,11 @@
         <v>101</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="K6:N21" si="0">F2*N$2+N$3</f>
+        <f t="shared" ref="N6:N21" si="1">F2*N$2+N$3</f>
         <v>8884.3702755199593</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>114.9</v>
       </c>
@@ -8469,11 +8510,11 @@
         <v>104</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9155.35264347876</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>117.6</v>
       </c>
@@ -8496,11 +8537,11 @@
         <v>106.8</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10584.269520240312</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>119.9</v>
       </c>
@@ -8523,11 +8564,11 @@
         <v>109.6</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8023.186397001864</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>122.1</v>
       </c>
@@ -8550,11 +8591,11 @@
         <v>112.3</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6176.0705281647843</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>124.3</v>
       </c>
@@ -8577,11 +8618,11 @@
         <v>114.9</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6152.9219137290802</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>126.3</v>
       </c>
@@ -8604,11 +8645,11 @@
         <v>117.6</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4005.8060448920014</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>128.69999999999999</v>
       </c>
@@ -8631,11 +8672,11 @@
         <v>119.9</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2914.5591936604305</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>130.80000000000001</v>
       </c>
@@ -8658,11 +8699,11 @@
         <v>122.1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2087.2795968302153</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>133</v>
       </c>
@@ -8685,11 +8726,11 @@
         <v>124.3</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>135.19999999999999</v>
       </c>
@@ -8712,7 +8753,7 @@
         <v>126.3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4440.6549119725414</v>
       </c>
     </row>
@@ -8739,7 +8780,7 @@
         <v>128.69999999999999</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2965.4408063395817</v>
       </c>
     </row>
@@ -8766,7 +8807,7 @@
         <v>130.80000000000001</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4712.1284639107535</v>
       </c>
     </row>
@@ -8793,7 +8834,7 @@
         <v>133</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3074.84886708054</v>
       </c>
     </row>
@@ -8820,7 +8861,7 @@
         <v>135.19999999999999</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3057.5692702503238</v>
       </c>
     </row>
@@ -8847,7 +8888,7 @@
         <v>137.4</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3520.2896734201195</v>
       </c>
     </row>
@@ -8874,7 +8915,7 @@
         <v>139.69999999999999</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="K7:N70" si="1">F18*N$2+N$3</f>
+        <f t="shared" ref="K22:N70" si="2">F18*N$2+N$3</f>
         <v>5489.0428221885386</v>
       </c>
     </row>
@@ -8901,7 +8942,7 @@
         <v>142</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3827.7959709569459</v>
       </c>
     </row>
@@ -8928,7 +8969,7 @@
         <v>144.6</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7554.6473565212427</v>
       </c>
     </row>
@@ -8955,7 +8996,7 @@
         <v>147</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12709.433250888296</v>
       </c>
     </row>
@@ -8982,7 +9023,7 @@
         <v>149.30000000000001</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24488.186399656704</v>
       </c>
     </row>
@@ -9009,7 +9050,7 @@
         <v>152.1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42777.103276418282</v>
       </c>
     </row>
@@ -9036,7 +9077,7 @@
         <v>154.4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71955.856425186663</v>
       </c>
     </row>
@@ -9063,7 +9104,7 @@
         <v>156.69999999999999</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119104.60957395511</v>
       </c>
     </row>
@@ -9090,7 +9131,7 @@
         <v>159</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178403.36272272351</v>
       </c>
     </row>
@@ -9117,7 +9158,7 @@
         <v>161.30000000000001</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>233832.11587149196</v>
       </c>
     </row>
@@ -9144,7 +9185,7 @@
         <v>163.5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190194.83627466168</v>
       </c>
     </row>
@@ -9171,7 +9212,7 @@
         <v>166.1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104881.68766022602</v>
       </c>
     </row>
@@ -9198,7 +9239,7 @@
         <v>168</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86966.309826599914</v>
       </c>
     </row>
@@ -9225,7 +9266,7 @@
         <v>170.5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87297.128466565599</v>
       </c>
     </row>
@@ -9252,7 +9293,7 @@
         <v>172.7</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98109.848869735375</v>
       </c>
     </row>
@@ -9279,7 +9320,7 @@
         <v>175</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89878.602018503792</v>
       </c>
     </row>
@@ -9306,7 +9347,7 @@
         <v>177.2</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68051.322421673583</v>
       </c>
     </row>
@@ -9333,7 +9374,7 @@
         <v>179.8</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53238.173807237879</v>
       </c>
     </row>
@@ -9360,7 +9401,7 @@
         <v>182.1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46446.926956006289</v>
       </c>
     </row>
@@ -9387,7 +9428,7 @@
         <v>184.4</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39865.680104774729</v>
       </c>
     </row>
@@ -9414,7 +9455,7 @@
         <v>186.6</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36608.40050794452</v>
       </c>
     </row>
@@ -9441,7 +9482,7 @@
         <v>188.9</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33417.15365671293</v>
       </c>
     </row>
@@ -9468,7 +9509,7 @@
         <v>191.5</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30694.005042277233</v>
       </c>
     </row>
@@ -9495,7 +9536,7 @@
         <v>193.8</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32362.758191045639</v>
       </c>
     </row>
@@ -9522,7 +9563,7 @@
         <v>196.1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31361.511339814046</v>
       </c>
     </row>
@@ -9549,7 +9590,7 @@
         <v>198.4</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30900.264488582488</v>
       </c>
     </row>
@@ -9576,23 +9617,23 @@
         <v>200.7</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J7:J70" si="2">B44*J$2+J$3</f>
+        <f t="shared" ref="J48:J70" si="3">B44*J$2+J$3</f>
         <v>100380.23985255144</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46277.792882340917</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50488.436140756894</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85672.664894317</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29869.017637350891</v>
       </c>
     </row>
@@ -9619,23 +9660,23 @@
         <v>202.9</v>
       </c>
       <c r="J49">
+        <f t="shared" si="3"/>
+        <v>100523.7237020872</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="2"/>
-        <v>100523.7237020872</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="1"/>
         <v>45518.372779399397</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50602.440473916082</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85721.983111779162</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28861.738040520679</v>
       </c>
     </row>
@@ -9662,23 +9703,23 @@
         <v>205.5</v>
       </c>
       <c r="J50">
+        <f t="shared" si="3"/>
+        <v>100935.84097881128</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="2"/>
-        <v>100935.84097881128</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
         <v>45420.876294104841</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50507.809231286024</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85643.813732416267</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27938.589426084971</v>
       </c>
     </row>
@@ -9705,23 +9746,23 @@
         <v>207.8</v>
       </c>
       <c r="J51">
+        <f t="shared" si="3"/>
+        <v>101231.4831851441</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="2"/>
-        <v>101231.4831851441</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="1"/>
         <v>42586.937095575056</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50380.904670497905</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85645.510050672165</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28497.342574853399</v>
       </c>
     </row>
@@ -9748,23 +9789,23 @@
         <v>210.1</v>
       </c>
       <c r="J52">
+        <f t="shared" si="3"/>
+        <v>101783.12539147693</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="2"/>
-        <v>101783.12539147693</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="1"/>
         <v>45312.997897045272</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50509.000109709777</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85695.206368928062</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27796.095723621809</v>
       </c>
     </row>
@@ -9791,23 +9832,23 @@
         <v>212.3</v>
       </c>
       <c r="J53">
+        <f t="shared" si="3"/>
+        <v>102174.60924101269</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="2"/>
-        <v>102174.60924101269</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="1"/>
         <v>42953.577794103723</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50480.004442868965</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85677.524586390224</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25948.816126791597</v>
       </c>
     </row>
@@ -9834,23 +9875,23 @@
         <v>214.6</v>
       </c>
       <c r="J54">
+        <f t="shared" si="3"/>
+        <v>102734.25144734552</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="2"/>
-        <v>102734.25144734552</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="1"/>
         <v>45589.638595573982</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50410.099882080845</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85625.220904646121</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26567.569275560025</v>
       </c>
     </row>
@@ -9877,23 +9918,23 @@
         <v>217.2</v>
       </c>
       <c r="J55">
+        <f t="shared" si="3"/>
+        <v>103322.3687240696</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="2"/>
-        <v>103322.3687240696</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
         <v>43772.142110279419</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50168.468639450788</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85621.051525283227</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25104.420661124324</v>
       </c>
     </row>
@@ -9920,23 +9961,23 @@
         <v>219.5</v>
       </c>
       <c r="J56">
+        <f t="shared" si="3"/>
+        <v>104178.01093040242</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="2"/>
-        <v>104178.01093040242</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="1"/>
         <v>42298.202911749628</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50328.564078662668</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85671.747843539124</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25453.173809892727</v>
       </c>
     </row>
@@ -9963,23 +10004,23 @@
         <v>221.4</v>
       </c>
       <c r="J57">
+        <f t="shared" si="3"/>
+        <v>105293.01970954693</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="2"/>
-        <v>105293.01970954693</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="1"/>
         <v>43582.340095572858</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50347.295093663779</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85577.931758620078</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24277.795976266647</v>
       </c>
     </row>
@@ -10006,23 +10047,23 @@
         <v>224</v>
       </c>
       <c r="J58">
+        <f t="shared" si="3"/>
+        <v>106425.13698627101</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="2"/>
-        <v>106425.13698627101</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="1"/>
         <v>43994.843610278302</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50332.663851033729</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85647.762379257183</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26084.647361830946</v>
       </c>
     </row>
@@ -10049,23 +10090,23 @@
         <v>226.3</v>
       </c>
       <c r="J59">
+        <f t="shared" si="3"/>
+        <v>107484.77919260385</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="2"/>
-        <v>107484.77919260385</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="1"/>
         <v>39880.904411748546</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50265.759290245609</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85619.458697513081</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25023.400510599375</v>
       </c>
     </row>
@@ -10092,23 +10133,23 @@
         <v>228.6</v>
       </c>
       <c r="J60">
+        <f t="shared" si="3"/>
+        <v>109036.42139893668</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="2"/>
-        <v>109036.42139893668</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
         <v>41266.965213218769</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50287.854729457482</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85570.155015768978</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24112.153659367781</v>
       </c>
     </row>
@@ -10135,23 +10176,23 @@
         <v>230.9</v>
       </c>
       <c r="J61">
+        <f t="shared" si="3"/>
+        <v>110748.06360526952</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="2"/>
-        <v>110748.06360526952</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="1"/>
         <v>41673.026014688992</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50355.950168669355</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85492.851334024876</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21910.906808136184</v>
       </c>
     </row>
@@ -10178,23 +10219,23 @@
         <v>233.5</v>
       </c>
       <c r="J62">
+        <f t="shared" si="3"/>
+        <v>112016.18088199358</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="2"/>
-        <v>112016.18088199358</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="1"/>
         <v>40965.529529394429</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50337.318926039305</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85587.681954661981</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22637.758193700483</v>
       </c>
     </row>
@@ -10221,23 +10262,23 @@
         <v>235.8</v>
       </c>
       <c r="J63">
+        <f t="shared" si="3"/>
+        <v>114023.82308832642</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="2"/>
-        <v>114023.82308832642</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
         <v>41071.590330864638</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50212.414365251185</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85588.378272917878</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22326.511342468912</v>
       </c>
     </row>
@@ -10264,23 +10305,23 @@
         <v>238</v>
       </c>
       <c r="J64">
+        <f t="shared" si="3"/>
+        <v>115911.30693786217</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="2"/>
-        <v>115911.30693786217</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
         <v>38962.170227923118</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50341.418698410365</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85536.69649038004</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20959.231745638699</v>
       </c>
     </row>
@@ -10307,23 +10348,23 @@
         <v>240.3</v>
       </c>
       <c r="J65">
+        <f t="shared" si="3"/>
+        <v>116810.94914419501</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="2"/>
-        <v>116810.94914419501</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
         <v>38658.231029393311</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50199.514137622245</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85436.392808635937</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18727.984894407105</v>
       </c>
     </row>
@@ -10350,23 +10391,23 @@
         <v>242.6</v>
       </c>
       <c r="J66">
+        <f t="shared" si="3"/>
+        <v>118586.59135052783</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="2"/>
-        <v>118586.59135052783</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
         <v>38544.291830863564</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50214.609576834118</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85572.089126891835</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18206.738043175534</v>
       </c>
     </row>
@@ -10393,23 +10434,23 @@
         <v>245.2</v>
       </c>
       <c r="J67">
+        <f t="shared" si="3"/>
+        <v>120522.70862725191</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="2"/>
-        <v>120522.70862725191</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="1"/>
         <v>38366.795345569008</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50259.978334204068</v>
       </c>
       <c r="M67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85542.91974752894</v>
       </c>
       <c r="N67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17703.58942873983</v>
       </c>
     </row>
@@ -10436,23 +10477,23 @@
         <v>247.5</v>
       </c>
       <c r="J68">
+        <f t="shared" si="3"/>
+        <v>122154.35083358473</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="2"/>
-        <v>122154.35083358473</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="1"/>
         <v>36032.856147039223</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50290.073773415941</v>
       </c>
       <c r="M68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85446.616065784838</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17302.34257750824</v>
       </c>
     </row>
@@ -10479,23 +10520,23 @@
         <v>249.7</v>
       </c>
       <c r="J69">
+        <f t="shared" si="3"/>
+        <v>123913.83468312048</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="2"/>
-        <v>123913.83468312048</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="1"/>
         <v>36793.436044097703</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50206.078106575129</v>
       </c>
       <c r="M69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85446.934283246999</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16595.062980678023</v>
       </c>
     </row>
@@ -10522,23 +10563,23 @@
         <v>252</v>
       </c>
       <c r="J70">
+        <f t="shared" si="3"/>
+        <v>125213.47688945333</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="2"/>
-        <v>125213.47688945333</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="1"/>
         <v>37499.496845567919</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50139.173545787002</v>
       </c>
       <c r="M70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85447.630601502897</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16493.816129446455</v>
       </c>
     </row>
@@ -10565,23 +10606,23 @@
         <v>254.3</v>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:J134" si="3">B67*J$2+J$3</f>
+        <f t="shared" ref="J71:J134" si="4">B67*J$2+J$3</f>
         <v>126373.11909578615</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:N134" si="4">C67*K$2+K$3</f>
+        <f t="shared" ref="K71:N134" si="5">C67*K$2+K$3</f>
         <v>35325.557647038127</v>
       </c>
       <c r="L71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50274.268984998882</v>
       </c>
       <c r="M71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85514.326919758794</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16212.56927821486</v>
       </c>
     </row>
@@ -10608,23 +10649,23 @@
         <v>256.2</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127428.12787493068</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35789.694830861357</v>
       </c>
       <c r="L72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
       <c r="M72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85586.510834839763</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14407.19144458878</v>
       </c>
     </row>
@@ -10651,23 +10692,23 @@
         <v>259.2</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128136.87857884305</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35514.121963213802</v>
       </c>
       <c r="L73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50120.733181580705</v>
       </c>
       <c r="M73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85367.853858651797</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14468.173812547566</v>
       </c>
     </row>
@@ -10694,23 +10735,23 @@
         <v>261.5</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129296.5207851759</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34570.182764684025</v>
       </c>
       <c r="L74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50256.828620792585</v>
       </c>
       <c r="M74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85479.550176907695</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13286.926961315996</v>
       </c>
     </row>
@@ -10737,23 +10778,23 @@
         <v>263.7</v>
       </c>
       <c r="J75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129752.00463471166</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32660.762661742501</v>
       </c>
       <c r="L75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50152.832953951773</v>
       </c>
       <c r="M75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85446.868394369856</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12219.64736448578</v>
       </c>
     </row>
@@ -10780,23 +10821,23 @@
         <v>266</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129551.64684104448</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31916.82346321271</v>
       </c>
       <c r="L76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50052.928393163646</v>
       </c>
       <c r="M76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85382.564712625754</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9658.4005132542097</v>
       </c>
     </row>
@@ -10823,23 +10864,23 @@
         <v>268.3</v>
       </c>
       <c r="J77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129091.28904737732</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32732.884264682929</v>
       </c>
       <c r="L77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50114.023832375526</v>
       </c>
       <c r="M77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85391.261030881651</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7727.1536620226161</v>
       </c>
     </row>
@@ -10866,23 +10907,23 @@
         <v>270.89999999999998</v>
       </c>
       <c r="J78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127539.40632410139</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28635.38777938838</v>
       </c>
       <c r="L78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50275.392589745468</v>
       </c>
       <c r="M78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85429.091651518756</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9864.005047586912</v>
       </c>
     </row>
@@ -10909,23 +10950,23 @@
         <v>273.2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126067.04853043421</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30081.4485808586</v>
       </c>
       <c r="L79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50114.488028957348</v>
       </c>
       <c r="M79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85418.787969774654</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11382.758196355331</v>
       </c>
     </row>
@@ -10952,23 +10993,23 @@
         <v>275.39999999999998</v>
       </c>
       <c r="J80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123510.53237996998</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28542.02847791708</v>
       </c>
       <c r="L80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50362.492362116529</v>
       </c>
       <c r="M80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85326.106187236815</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8845.4785995251295</v>
       </c>
     </row>
@@ -10995,23 +11036,23 @@
         <v>277.7</v>
       </c>
       <c r="J81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121450.1745863028</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28038.089279387292</v>
       </c>
       <c r="L81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50287.587801328409</v>
       </c>
       <c r="M81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85353.802505492713</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8354.2317482935377</v>
       </c>
     </row>
@@ -11038,23 +11079,23 @@
         <v>279.89999999999998</v>
       </c>
       <c r="J82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119309.65843583856</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29148.66917644575</v>
       </c>
       <c r="L82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50315.592134487597</v>
       </c>
       <c r="M82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85464.120722954875</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9056.9521514633216</v>
       </c>
     </row>
@@ -11081,23 +11122,23 @@
         <v>282.5</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118665.77571256262</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27301.17269115122</v>
       </c>
       <c r="L83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50423.96089185754</v>
       </c>
       <c r="M83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85305.95134359198</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6783.8035370276275</v>
       </c>
     </row>
@@ -11124,23 +11165,23 @@
         <v>284.8</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117229.41791889546</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28887.233492621439</v>
       </c>
       <c r="L84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50444.05633106942</v>
       </c>
       <c r="M84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85385.647661847877</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7522.5566857960466</v>
       </c>
     </row>
@@ -11167,23 +11208,23 @@
         <v>287.10000000000002</v>
       </c>
       <c r="J85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116197.06012522829</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27103.294294091651</v>
       </c>
       <c r="L85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50353.151770281293</v>
       </c>
       <c r="M85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85267.343980103775</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8321.3098345644648</v>
       </c>
     </row>
@@ -11210,23 +11251,23 @@
         <v>289.39999999999998</v>
       </c>
       <c r="J86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115224.70233156113</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29249.35509556187</v>
       </c>
       <c r="L86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50287.247209493173</v>
       </c>
       <c r="M86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85279.040298359672</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7680.0629833328849</v>
       </c>
     </row>
@@ -11253,23 +11294,23 @@
         <v>291.7</v>
       </c>
       <c r="J87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114620.34453789397</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29865.41589703209</v>
       </c>
       <c r="L87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50384.342648705046</v>
       </c>
       <c r="M87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85243.73661661557</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7338.8161321012922</v>
       </c>
     </row>
@@ -11296,23 +11337,23 @@
         <v>294.3</v>
       </c>
       <c r="J88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113696.46181461803</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31777.91941173753</v>
       </c>
       <c r="L88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50356.711406074995</v>
       </c>
       <c r="M88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85202.567237252675</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5545.667517665589</v>
       </c>
     </row>
@@ -11339,23 +11380,23 @@
         <v>296.3</v>
       </c>
       <c r="J89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113251.62895055962</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32267.537499972521</v>
       </c>
       <c r="L89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50310.533527128799</v>
       </c>
       <c r="M89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85201.129253127365</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5606.3224296381304</v>
       </c>
     </row>
@@ -11382,23 +11423,23 @@
         <v>298.89999999999998</v>
       </c>
       <c r="J90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112803.7462272837</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32850.041014677969</v>
       </c>
       <c r="L90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50430.902284498748</v>
       </c>
       <c r="M90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85225.95987376447</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7053.1738152024263</v>
       </c>
     </row>
@@ -11425,23 +11466,23 @@
         <v>301.2</v>
       </c>
       <c r="J91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112167.38843361654</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34946.101816148177</v>
       </c>
       <c r="L91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50608.997723710621</v>
       </c>
       <c r="M91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85230.656192020368</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4491.9269639708464</v>
       </c>
     </row>
@@ -11468,23 +11509,23 @@
         <v>303.5</v>
       </c>
       <c r="J92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111383.03063994937</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36832.1626176184</v>
       </c>
       <c r="L92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50256.093162922502</v>
       </c>
       <c r="M92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85213.352510276265</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4870.6801127392619</v>
       </c>
     </row>
@@ -11511,23 +11552,23 @@
         <v>305.7</v>
       </c>
       <c r="J93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110902.51448948513</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36382.74251467688</v>
       </c>
       <c r="L93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50207.097496081689</v>
       </c>
       <c r="M93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85112.670727738427</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4643.4005159090493</v>
       </c>
     </row>
@@ -11554,23 +11595,23 @@
         <v>308.3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110394.63176620919</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36095.246029382317</v>
       </c>
       <c r="L94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50120.466253451632</v>
       </c>
       <c r="M94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85241.501348375532</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4860.2519014733425</v>
       </c>
     </row>
@@ -11597,23 +11638,23 @@
         <v>310.60000000000002</v>
       </c>
       <c r="J95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110026.27397254203</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38741.30683085254</v>
       </c>
       <c r="L95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50309.561692663512</v>
       </c>
       <c r="M95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85104.197666631429</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4969.0050502417707</v>
       </c>
     </row>
@@ -11640,23 +11681,23 @@
         <v>312.89999999999998</v>
       </c>
       <c r="J96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109569.91617887486</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37277.367632322763</v>
       </c>
       <c r="L96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50162.657131875385</v>
       </c>
       <c r="M96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85204.893984887327</v>
       </c>
       <c r="N96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5227.7581990101844</v>
       </c>
     </row>
@@ -11683,23 +11724,23 @@
         <v>315.2</v>
       </c>
       <c r="J97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109525.5583852077</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34573.428433792978</v>
       </c>
       <c r="L97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50271.752571087265</v>
       </c>
       <c r="M97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85194.590303143224</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5516.5113477785908</v>
       </c>
     </row>
@@ -11726,23 +11767,23 @@
         <v>317.39999999999998</v>
       </c>
       <c r="J98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109229.04223474345</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31804.008330851459</v>
       </c>
       <c r="L98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50224.756904246453</v>
       </c>
       <c r="M98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85211.908520605386</v>
       </c>
       <c r="N98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3879.2317509483873</v>
       </c>
     </row>
@@ -11769,23 +11810,23 @@
         <v>320</v>
       </c>
       <c r="J99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108629.15951146751</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26316.511845556899</v>
       </c>
       <c r="L99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50245.125661616396</v>
       </c>
       <c r="M99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85221.739141242491</v>
       </c>
       <c r="N99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3766.0831365126805</v>
       </c>
     </row>
@@ -11812,23 +11853,23 @@
         <v>322.3</v>
       </c>
       <c r="J100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108236.80171780035</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27812.572647027118</v>
       </c>
       <c r="L100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50181.221100828276</v>
       </c>
       <c r="M100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85184.435459498389</v>
       </c>
       <c r="N100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6424.8362852811006</v>
       </c>
     </row>
@@ -11855,23 +11896,23 @@
         <v>324.60000000000002</v>
       </c>
       <c r="J101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108668.44392413319</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23028.63344849733</v>
       </c>
       <c r="L101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50180.316540040149</v>
       </c>
       <c r="M101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85143.131777754286</v>
       </c>
       <c r="N101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4403.5894340495161</v>
       </c>
     </row>
@@ -11898,23 +11939,23 @@
         <v>326.89999999999998</v>
       </c>
       <c r="J102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108068.08613046601</v>
       </c>
       <c r="K102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23424.694249967561</v>
       </c>
       <c r="L102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50283.411979252029</v>
       </c>
       <c r="M102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85210.828096010184</v>
       </c>
       <c r="N102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4362.3425828179379</v>
       </c>
     </row>
@@ -11941,23 +11982,23 @@
         <v>329.2</v>
       </c>
       <c r="J103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108279.72833679884</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22620.755051437769</v>
       </c>
       <c r="L103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50383.507418463902</v>
       </c>
       <c r="M103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85105.524414266081</v>
       </c>
       <c r="N103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5371.0957315863452</v>
       </c>
     </row>
@@ -11984,23 +12025,23 @@
         <v>331.7</v>
       </c>
       <c r="J104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108143.68725672584</v>
       </c>
       <c r="K104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22357.77766173151</v>
       </c>
       <c r="L104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50218.785069781159</v>
       </c>
       <c r="M104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85117.976934109451</v>
       </c>
       <c r="N104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3841.9143715520222</v>
       </c>
     </row>
@@ -12027,23 +12068,23 @@
         <v>333.7</v>
       </c>
       <c r="J105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107926.85439266743</v>
       </c>
       <c r="K105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20177.395749966468</v>
       </c>
       <c r="L105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50146.607190834962</v>
       </c>
       <c r="M105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85094.53894998414</v>
       </c>
       <c r="N105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6392.5692835245609</v>
       </c>
     </row>
@@ -12070,23 +12111,23 @@
         <v>336.3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107802.97166939151</v>
       </c>
       <c r="K106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20589.899264671909</v>
       </c>
       <c r="L106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50150.975948204912</v>
       </c>
       <c r="M106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85055.369570621246</v>
       </c>
       <c r="N106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5319.4206690888568</v>
       </c>
     </row>
@@ -12113,23 +12154,23 @@
         <v>338.6</v>
       </c>
       <c r="J107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107534.61387572433</v>
       </c>
       <c r="K107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22385.960066142128</v>
       </c>
       <c r="L107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50273.071387416785</v>
       </c>
       <c r="M107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85080.065888877143</v>
       </c>
       <c r="N107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2728.1738178572732</v>
       </c>
     </row>
@@ -12156,23 +12197,23 @@
         <v>340.9</v>
       </c>
       <c r="J108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107434.25608205717</v>
       </c>
       <c r="K108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19892.02086761238</v>
       </c>
       <c r="L108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50295.166826628665</v>
       </c>
       <c r="M108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85004.762207133041</v>
       </c>
       <c r="N108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3556.9269666256951</v>
       </c>
     </row>
@@ -12199,23 +12240,23 @@
         <v>343.2</v>
       </c>
       <c r="J109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107357.89828839</v>
       </c>
       <c r="K109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22648.08166908256</v>
       </c>
       <c r="L109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50321.262265840545</v>
       </c>
       <c r="M109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85098.458525388938</v>
       </c>
       <c r="N109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5045.6801153941014</v>
       </c>
     </row>
@@ -12242,23 +12283,23 @@
         <v>345.4</v>
       </c>
       <c r="J110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107425.38213792576</v>
       </c>
       <c r="K110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20738.661566141051</v>
       </c>
       <c r="L110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50555.266598999726</v>
       </c>
       <c r="M110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85057.7767428511</v>
       </c>
       <c r="N110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4848.4005185638889</v>
       </c>
     </row>
@@ -12285,23 +12326,23 @@
         <v>348</v>
       </c>
       <c r="J111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107161.49941464984</v>
       </c>
       <c r="K111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21761.16508084652</v>
       </c>
       <c r="L111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50308.635356369676</v>
       </c>
       <c r="M111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85113.607363488205</v>
       </c>
       <c r="N111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3355.2519041281953</v>
       </c>
     </row>
@@ -12328,23 +12369,23 @@
         <v>350.3</v>
       </c>
       <c r="J112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107089.14162098267</v>
       </c>
       <c r="K112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21727.22588231671</v>
       </c>
       <c r="L112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50431.730795581549</v>
       </c>
       <c r="M112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85076.303681744103</v>
       </c>
       <c r="N112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4634.005052896614</v>
       </c>
     </row>
@@ -12371,23 +12412,23 @@
         <v>352.6</v>
       </c>
       <c r="J113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107172.78382731549</v>
       </c>
       <c r="K113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18853.286683786922</v>
       </c>
       <c r="L113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50477.826234793429</v>
       </c>
       <c r="M113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85000</v>
       </c>
       <c r="N113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4502.7582016650304</v>
       </c>
     </row>
@@ -12414,23 +12455,23 @@
         <v>354.9</v>
       </c>
       <c r="J114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107072.42603364833</v>
       </c>
       <c r="K114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20819.347485257142</v>
       </c>
       <c r="L114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50304.921674005302</v>
       </c>
       <c r="M114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85110.696318255897</v>
       </c>
       <c r="N114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4641.5113504334522</v>
       </c>
     </row>
@@ -12457,23 +12498,23 @@
         <v>357.5</v>
       </c>
       <c r="J115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106704.54331037239</v>
       </c>
       <c r="K115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21701.850999962611</v>
       </c>
       <c r="L115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50528.290431375252</v>
       </c>
       <c r="M115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85061.526938893003</v>
       </c>
       <c r="N115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7108.3627359977463</v>
       </c>
     </row>
@@ -12500,23 +12541,23 @@
         <v>359.5</v>
       </c>
       <c r="J116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107143.710446314</v>
       </c>
       <c r="K116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21831.469088197569</v>
       </c>
       <c r="L116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50424.112552429055</v>
       </c>
       <c r="M116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85022.088954767692</v>
       </c>
       <c r="N116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3299.017647970275</v>
       </c>
     </row>
@@ -12543,23 +12584,23 @@
         <v>362.1</v>
       </c>
       <c r="J117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106935.82772303806</v>
       </c>
       <c r="K117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21173.97260290305</v>
       </c>
       <c r="L117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50537.481309799005</v>
       </c>
       <c r="M117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85139.919575404798</v>
       </c>
       <c r="N117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4355.8690335345809</v>
       </c>
     </row>
@@ -12586,23 +12627,23 @@
         <v>364.4</v>
       </c>
       <c r="J118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106803.4699293709</v>
       </c>
       <c r="K118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20820.033404373269</v>
       </c>
       <c r="L118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50740.576749010885</v>
       </c>
       <c r="M118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85179.615893660695</v>
       </c>
       <c r="N118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4704.6221823029937</v>
       </c>
     </row>
@@ -12629,23 +12670,23 @@
         <v>366.7</v>
       </c>
       <c r="J119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106991.11213570373</v>
       </c>
       <c r="K119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18666.094205843481</v>
       </c>
       <c r="L119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50639.672188222758</v>
       </c>
       <c r="M119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85270.312211916593</v>
       </c>
       <c r="N119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4873.3753310714101</v>
       </c>
     </row>
@@ -12672,23 +12713,23 @@
         <v>369</v>
       </c>
       <c r="J120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107086.75434203657</v>
       </c>
       <c r="K120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21652.1550073137</v>
       </c>
       <c r="L120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50975.76762743463</v>
       </c>
       <c r="M120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85241.00853017249</v>
       </c>
       <c r="N120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5042.1284798398292</v>
       </c>
     </row>
@@ -12715,23 +12756,23 @@
         <v>371.3</v>
       </c>
       <c r="J121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106994.39654836939</v>
       </c>
       <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21648.215808783909</v>
       </c>
       <c r="L121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51012.863066646511</v>
       </c>
       <c r="M121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85332.704848428388</v>
       </c>
       <c r="N121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4160.8816286082447</v>
       </c>
     </row>
@@ -12758,23 +12799,23 @@
         <v>373.9</v>
       </c>
       <c r="J122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106998.51382509347</v>
       </c>
       <c r="K122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19010.719323489389</v>
       </c>
       <c r="L122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51237.23182401646</v>
       </c>
       <c r="M122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85483.535469065493</v>
       </c>
       <c r="N122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4737.7330141725324</v>
       </c>
     </row>
@@ -12801,23 +12842,23 @@
         <v>376.2</v>
       </c>
       <c r="J123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106906.1560314263</v>
       </c>
       <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20656.78012495958</v>
       </c>
       <c r="L123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51440.327263228333</v>
       </c>
       <c r="M123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85486.231787321391</v>
       </c>
       <c r="N123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4006.4861629409606</v>
       </c>
     </row>
@@ -12844,23 +12885,23 @@
         <v>378.5</v>
       </c>
       <c r="J124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106761.79823775914</v>
       </c>
       <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19962.840926429821</v>
       </c>
       <c r="L124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51530.422702440206</v>
       </c>
       <c r="M124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85615.928105577288</v>
       </c>
       <c r="N124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5915.2393117093707</v>
       </c>
     </row>
@@ -12887,23 +12928,23 @@
         <v>380.7</v>
       </c>
       <c r="J125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107349.28208729489</v>
       </c>
       <c r="K125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19943.420823488279</v>
       </c>
       <c r="L125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51771.427035599401</v>
       </c>
       <c r="M125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85710.24632303945</v>
       </c>
       <c r="N125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2777.9597148791545</v>
       </c>
     </row>
@@ -12930,23 +12971,23 @@
         <v>383</v>
       </c>
       <c r="J126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107728.92429362772</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21509.481624958491</v>
       </c>
       <c r="L126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52030.522474811274</v>
       </c>
       <c r="M126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85799.942641295347</v>
       </c>
       <c r="N126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4506.7128636475863</v>
       </c>
     </row>
@@ -12973,23 +13014,23 @@
         <v>385.6</v>
       </c>
       <c r="J127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107929.04157035179</v>
       </c>
       <c r="K127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19811.985139663971</v>
       </c>
       <c r="L127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52535.891232181224</v>
       </c>
       <c r="M127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86164.773261932452</v>
       </c>
       <c r="N127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4273.5642492118805</v>
       </c>
     </row>
@@ -13016,23 +13057,23 @@
         <v>387.9</v>
       </c>
       <c r="J128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108168.68377668463</v>
       </c>
       <c r="K128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19698.04594113418</v>
       </c>
       <c r="L128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53020.986671393097</v>
       </c>
       <c r="M128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86378.46958018835</v>
       </c>
       <c r="N128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3422.3173979802896</v>
       </c>
     </row>
@@ -13059,23 +13100,23 @@
         <v>390.2</v>
       </c>
       <c r="J129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109096.32598301745</v>
       </c>
       <c r="K129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21144.106742604399</v>
       </c>
       <c r="L129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53479.08211060497</v>
       </c>
       <c r="M129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86750.165898444247</v>
       </c>
       <c r="N129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6171.070546748706</v>
       </c>
     </row>
@@ -13102,23 +13143,23 @@
         <v>392.4</v>
       </c>
       <c r="J130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109623.8098325532</v>
       </c>
       <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22644.68663966285</v>
       </c>
       <c r="L130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53983.086443764158</v>
       </c>
       <c r="M130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87198.484115906409</v>
       </c>
       <c r="N130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4923.7909499185016</v>
       </c>
     </row>
@@ -13145,23 +13186,23 @@
         <v>395</v>
       </c>
       <c r="J131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109971.92710927728</v>
       </c>
       <c r="K131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21127.190154368331</v>
       </c>
       <c r="L131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54468.455201134107</v>
       </c>
       <c r="M131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87677.314736543514</v>
       </c>
       <c r="N131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4660.6423354827984</v>
       </c>
     </row>
@@ -13188,23 +13229,23 @@
         <v>397</v>
       </c>
       <c r="J132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110943.09424521888</v>
       </c>
       <c r="K132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19836.808242603289</v>
       </c>
       <c r="L132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55212.277322187911</v>
       </c>
       <c r="M132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88336.876752418204</v>
       </c>
       <c r="N132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5141.2972474553399</v>
       </c>
     </row>
@@ -13231,23 +13272,23 @@
         <v>399.6</v>
       </c>
       <c r="J133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111611.21152194295</v>
       </c>
       <c r="K133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20159.311757308729</v>
       </c>
       <c r="L133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56033.646079557861</v>
       </c>
       <c r="M133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88955.707373055309</v>
       </c>
       <c r="N133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4758.1486330196367</v>
       </c>
     </row>
@@ -13274,23 +13315,23 @@
         <v>401.9</v>
       </c>
       <c r="J134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112182.85372827578</v>
       </c>
       <c r="K134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21085.372558778981</v>
       </c>
       <c r="L134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56989.741518769733</v>
       </c>
       <c r="M134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89655.403691311207</v>
       </c>
       <c r="N134">
-        <f t="shared" ref="N134:N197" si="5">F130*N$2+N$3</f>
+        <f t="shared" ref="N134:N197" si="6">F130*N$2+N$3</f>
         <v>5076.9017817880467</v>
       </c>
     </row>
@@ -13317,23 +13358,23 @@
         <v>404.2</v>
       </c>
       <c r="J135">
-        <f t="shared" ref="J135:J198" si="6">B131*J$2+J$3</f>
+        <f t="shared" ref="J135:J198" si="7">B131*J$2+J$3</f>
         <v>113706.49593460861</v>
       </c>
       <c r="K135">
-        <f t="shared" ref="K135:N198" si="7">C131*K$2+K$3</f>
+        <f t="shared" ref="K135:N198" si="8">C131*K$2+K$3</f>
         <v>19361.433360249201</v>
       </c>
       <c r="L135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58149.836957981614</v>
       </c>
       <c r="M135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90383.100009567104</v>
       </c>
       <c r="N135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6325.6549305564749</v>
       </c>
     </row>
@@ -13360,23 +13401,23 @@
         <v>406.4</v>
       </c>
       <c r="J136">
+        <f t="shared" si="7"/>
+        <v>114737.97978414437</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="8"/>
+        <v>23192.013257307659</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="8"/>
+        <v>59463.841291140794</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="8"/>
+        <v>91589.418227029266</v>
+      </c>
+      <c r="N136">
         <f t="shared" si="6"/>
-        <v>114737.97978414437</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="7"/>
-        <v>23192.013257307659</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="7"/>
-        <v>59463.841291140794</v>
-      </c>
-      <c r="M136">
-        <f t="shared" si="7"/>
-        <v>91589.418227029266</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="5"/>
         <v>4448.3753337262588</v>
       </c>
     </row>
@@ -13403,23 +13444,23 @@
         <v>408.7</v>
       </c>
       <c r="J137">
+        <f t="shared" si="7"/>
+        <v>116861.6219904772</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="8"/>
+        <v>21748.074058777871</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="8"/>
+        <v>60930.936730352681</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="8"/>
+        <v>92762.114545285163</v>
+      </c>
+      <c r="N137">
         <f t="shared" si="6"/>
-        <v>116861.6219904772</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="7"/>
-        <v>21748.074058777871</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="7"/>
-        <v>60930.936730352681</v>
-      </c>
-      <c r="M137">
-        <f t="shared" si="7"/>
-        <v>92762.114545285163</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="5"/>
         <v>6507.1284824946651</v>
       </c>
     </row>
@@ -13446,23 +13487,23 @@
         <v>411.3</v>
       </c>
       <c r="J138">
+        <f t="shared" si="7"/>
+        <v>119129.73926720128</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="8"/>
+        <v>23770.577573483341</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="8"/>
+        <v>62586.305487722624</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="8"/>
+        <v>94229.945165922269</v>
+      </c>
+      <c r="N138">
         <f t="shared" si="6"/>
-        <v>119129.73926720128</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="7"/>
-        <v>23770.577573483341</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="7"/>
-        <v>62586.305487722624</v>
-      </c>
-      <c r="M138">
-        <f t="shared" si="7"/>
-        <v>94229.945165922269</v>
-      </c>
-      <c r="N138">
-        <f t="shared" si="5"/>
         <v>5583.9798680589629</v>
       </c>
     </row>
@@ -13489,23 +13530,23 @@
         <v>413.6</v>
       </c>
       <c r="J139">
+        <f t="shared" si="7"/>
+        <v>121933.3814735341</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="8"/>
+        <v>21196.63837495356</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="8"/>
+        <v>64606.400926934497</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="8"/>
+        <v>96364.641484178166</v>
+      </c>
+      <c r="N139">
         <f t="shared" si="6"/>
-        <v>121933.3814735341</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="7"/>
-        <v>21196.63837495356</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="7"/>
-        <v>64606.400926934497</v>
-      </c>
-      <c r="M139">
-        <f t="shared" si="7"/>
-        <v>96364.641484178166</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="5"/>
         <v>5872.7330168273911</v>
       </c>
     </row>
@@ -13532,23 +13573,23 @@
         <v>415.9</v>
       </c>
       <c r="J140">
+        <f t="shared" si="7"/>
+        <v>125785.02367986694</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="8"/>
+        <v>20982.699176423779</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="8"/>
+        <v>67685.49636614637</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="8"/>
+        <v>99222.337802434064</v>
+      </c>
+      <c r="N140">
         <f t="shared" si="6"/>
-        <v>125785.02367986694</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="7"/>
-        <v>20982.699176423779</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="7"/>
-        <v>67685.49636614637</v>
-      </c>
-      <c r="M140">
-        <f t="shared" si="7"/>
-        <v>99222.337802434064</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="5"/>
         <v>6281.4861655958011</v>
       </c>
     </row>
@@ -13575,23 +13616,23 @@
         <v>418.1</v>
       </c>
       <c r="J141">
+        <f t="shared" si="7"/>
+        <v>130796.5075294027</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="8"/>
+        <v>24253.27907348223</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="8"/>
+        <v>70642.500699305558</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="8"/>
+        <v>104409.65601989623</v>
+      </c>
+      <c r="N141">
         <f t="shared" si="6"/>
-        <v>130796.5075294027</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="7"/>
-        <v>24253.27907348223</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="7"/>
-        <v>70642.500699305558</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="7"/>
-        <v>104409.65601989623</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="5"/>
         <v>7524.206568765585</v>
       </c>
     </row>
@@ -13618,23 +13659,23 @@
         <v>420.7</v>
       </c>
       <c r="J142">
+        <f t="shared" si="7"/>
+        <v>140008.62480612675</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="8"/>
+        <v>23695.782588187711</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="8"/>
+        <v>74322.869456675515</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="8"/>
+        <v>112166.48664053333</v>
+      </c>
+      <c r="N142">
         <f t="shared" si="6"/>
-        <v>140008.62480612675</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="7"/>
-        <v>23695.782588187711</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="7"/>
-        <v>74322.869456675515</v>
-      </c>
-      <c r="M142">
-        <f t="shared" si="7"/>
-        <v>112166.48664053333</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="5"/>
         <v>8071.0579543298809</v>
       </c>
     </row>
@@ -13661,23 +13702,23 @@
         <v>423</v>
       </c>
       <c r="J143">
+        <f t="shared" si="7"/>
+        <v>153776.2670124596</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="8"/>
+        <v>20431.843389657919</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="8"/>
+        <v>80181.964895887388</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="8"/>
+        <v>132214.18295878923</v>
+      </c>
+      <c r="N143">
         <f t="shared" si="6"/>
-        <v>153776.2670124596</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="7"/>
-        <v>20431.843389657919</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="7"/>
-        <v>80181.964895887388</v>
-      </c>
-      <c r="M143">
-        <f t="shared" si="7"/>
-        <v>132214.18295878923</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="5"/>
         <v>7549.8111030983127</v>
       </c>
     </row>
@@ -13704,23 +13745,23 @@
         <v>425.2</v>
       </c>
       <c r="J144">
+        <f t="shared" si="7"/>
+        <v>187595.75086199539</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="8"/>
+        <v>26742.42328671637</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="8"/>
+        <v>87935.969229046575</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="8"/>
+        <v>197749.50117625139</v>
+      </c>
+      <c r="N144">
         <f t="shared" si="6"/>
-        <v>187595.75086199539</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="7"/>
-        <v>26742.42328671637</v>
-      </c>
-      <c r="L144">
-        <f t="shared" si="7"/>
-        <v>87935.969229046575</v>
-      </c>
-      <c r="M144">
-        <f t="shared" si="7"/>
-        <v>197749.50117625139</v>
-      </c>
-      <c r="N144">
-        <f t="shared" si="5"/>
         <v>11972.531506268097</v>
       </c>
     </row>
@@ -13747,23 +13788,23 @@
         <v>427.5</v>
       </c>
       <c r="J145">
+        <f t="shared" si="7"/>
+        <v>269107.39306832815</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="8"/>
+        <v>27638.484088186589</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="8"/>
+        <v>98436.064668258448</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="8"/>
+        <v>225295.1974945073</v>
+      </c>
+      <c r="N145">
         <f t="shared" si="6"/>
-        <v>269107.39306832815</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="7"/>
-        <v>27638.484088186589</v>
-      </c>
-      <c r="L145">
-        <f t="shared" si="7"/>
-        <v>98436.064668258448</v>
-      </c>
-      <c r="M145">
-        <f t="shared" si="7"/>
-        <v>225295.1974945073</v>
-      </c>
-      <c r="N145">
-        <f t="shared" si="5"/>
         <v>12741.284655036503</v>
       </c>
     </row>
@@ -13790,23 +13831,23 @@
         <v>429.8</v>
       </c>
       <c r="J146">
+        <f t="shared" si="7"/>
+        <v>256271.035274661</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="8"/>
+        <v>28584.544889656809</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="8"/>
+        <v>99683.160107470336</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="8"/>
+        <v>155832.89381276321</v>
+      </c>
+      <c r="N146">
         <f t="shared" si="6"/>
-        <v>256271.035274661</v>
-      </c>
-      <c r="K146">
-        <f t="shared" si="7"/>
-        <v>28584.544889656809</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="7"/>
-        <v>99683.160107470336</v>
-      </c>
-      <c r="M146">
-        <f t="shared" si="7"/>
-        <v>155832.89381276321</v>
-      </c>
-      <c r="N146">
-        <f t="shared" si="5"/>
         <v>10750.037803804931</v>
       </c>
     </row>
@@ -13833,23 +13874,23 @@
         <v>432</v>
       </c>
       <c r="J147">
+        <f t="shared" si="7"/>
+        <v>192074.51912419678</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="8"/>
+        <v>27115.124786715289</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="8"/>
+        <v>95813.164440629509</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="8"/>
+        <v>114064.21203022535</v>
+      </c>
+      <c r="N147">
         <f t="shared" si="6"/>
-        <v>192074.51912419678</v>
-      </c>
-      <c r="K147">
-        <f t="shared" si="7"/>
-        <v>27115.124786715289</v>
-      </c>
-      <c r="L147">
-        <f t="shared" si="7"/>
-        <v>95813.164440629509</v>
-      </c>
-      <c r="M147">
-        <f t="shared" si="7"/>
-        <v>114064.21203022535</v>
-      </c>
-      <c r="N147">
-        <f t="shared" si="5"/>
         <v>9202.7582069747186</v>
       </c>
     </row>
@@ -13876,23 +13917,23 @@
         <v>434.3</v>
       </c>
       <c r="J148">
+        <f t="shared" si="7"/>
+        <v>153542.16133052961</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="8"/>
+        <v>25611.185588185479</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="8"/>
+        <v>92109.259879841382</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="8"/>
+        <v>102357.90834848124</v>
+      </c>
+      <c r="N148">
         <f t="shared" si="6"/>
-        <v>153542.16133052961</v>
-      </c>
-      <c r="K148">
-        <f t="shared" si="7"/>
-        <v>25611.185588185479</v>
-      </c>
-      <c r="L148">
-        <f t="shared" si="7"/>
-        <v>92109.259879841382</v>
-      </c>
-      <c r="M148">
-        <f t="shared" si="7"/>
-        <v>102357.90834848124</v>
-      </c>
-      <c r="N148">
-        <f t="shared" si="5"/>
         <v>7511.5113557431469</v>
       </c>
     </row>
@@ -13919,23 +13960,23 @@
         <v>436.8</v>
       </c>
       <c r="J149">
+        <f t="shared" si="7"/>
+        <v>141030.12025045662</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="8"/>
+        <v>24408.20819847922</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="8"/>
+        <v>88114.537531158654</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="8"/>
+        <v>98210.360868324613</v>
+      </c>
+      <c r="N149">
         <f t="shared" si="6"/>
-        <v>141030.12025045662</v>
-      </c>
-      <c r="K149">
-        <f t="shared" si="7"/>
-        <v>24408.20819847922</v>
-      </c>
-      <c r="L149">
-        <f t="shared" si="7"/>
-        <v>88114.537531158654</v>
-      </c>
-      <c r="M149">
-        <f t="shared" si="7"/>
-        <v>98210.360868324613</v>
-      </c>
-      <c r="N149">
-        <f t="shared" si="5"/>
         <v>6822.3299957088002</v>
       </c>
     </row>
@@ -13962,23 +14003,23 @@
         <v>439.2</v>
       </c>
       <c r="J150">
+        <f t="shared" si="7"/>
+        <v>134721.9208135865</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="8"/>
+        <v>26689.749904361172</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="8"/>
+        <v>84336.724076423212</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="8"/>
+        <v>95823.435287374246</v>
+      </c>
+      <c r="N150">
         <f t="shared" si="6"/>
-        <v>134721.9208135865</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="7"/>
-        <v>26689.749904361172</v>
-      </c>
-      <c r="L150">
-        <f t="shared" si="7"/>
-        <v>84336.724076423212</v>
-      </c>
-      <c r="M150">
-        <f t="shared" si="7"/>
-        <v>95823.435287374246</v>
-      </c>
-      <c r="N150">
-        <f t="shared" si="5"/>
         <v>6847.1158900758537</v>
       </c>
     </row>
@@ -14005,23 +14046,23 @@
         <v>441.4</v>
       </c>
       <c r="J151">
+        <f t="shared" si="7"/>
+        <v>130569.40466312226</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="8"/>
+        <v>22230.329801419652</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="8"/>
+        <v>80184.728409582385</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="8"/>
+        <v>94613.753504836408</v>
+      </c>
+      <c r="N151">
         <f t="shared" si="6"/>
-        <v>130569.40466312226</v>
-      </c>
-      <c r="K151">
-        <f t="shared" si="7"/>
-        <v>22230.329801419652</v>
-      </c>
-      <c r="L151">
-        <f t="shared" si="7"/>
-        <v>80184.728409582385</v>
-      </c>
-      <c r="M151">
-        <f t="shared" si="7"/>
-        <v>94613.753504836408</v>
-      </c>
-      <c r="N151">
-        <f t="shared" si="5"/>
         <v>6259.8362932456384</v>
       </c>
     </row>
@@ -14048,23 +14089,23 @@
         <v>443.7</v>
       </c>
       <c r="J152">
+        <f t="shared" si="7"/>
+        <v>128277.04686945508</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="8"/>
+        <v>25466.390602889871</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="8"/>
+        <v>76444.823848794273</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="8"/>
+        <v>93492.449823092305</v>
+      </c>
+      <c r="N152">
         <f t="shared" si="6"/>
-        <v>128277.04686945508</v>
-      </c>
-      <c r="K152">
-        <f t="shared" si="7"/>
-        <v>25466.390602889871</v>
-      </c>
-      <c r="L152">
-        <f t="shared" si="7"/>
-        <v>76444.823848794273</v>
-      </c>
-      <c r="M152">
-        <f t="shared" si="7"/>
-        <v>93492.449823092305</v>
-      </c>
-      <c r="N152">
-        <f t="shared" si="5"/>
         <v>6068.5894420140694</v>
       </c>
     </row>
@@ -14091,23 +14132,23 @@
         <v>446</v>
       </c>
       <c r="J153">
+        <f t="shared" si="7"/>
+        <v>125724.68907578793</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="8"/>
+        <v>23472.45140436009</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="8"/>
+        <v>73183.919288006146</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="8"/>
+        <v>92512.146141348203</v>
+      </c>
+      <c r="N153">
         <f t="shared" si="6"/>
-        <v>125724.68907578793</v>
-      </c>
-      <c r="K153">
-        <f t="shared" si="7"/>
-        <v>23472.45140436009</v>
-      </c>
-      <c r="L153">
-        <f t="shared" si="7"/>
-        <v>73183.919288006146</v>
-      </c>
-      <c r="M153">
-        <f t="shared" si="7"/>
-        <v>92512.146141348203</v>
-      </c>
-      <c r="N153">
-        <f t="shared" si="5"/>
         <v>7107.3425907824731</v>
       </c>
     </row>
@@ -14134,23 +14175,23 @@
         <v>448.6</v>
       </c>
       <c r="J154">
+        <f t="shared" si="7"/>
+        <v>123472.80635251199</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="8"/>
+        <v>23974.954919065531</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="8"/>
+        <v>69858.288045376088</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="8"/>
+        <v>91970.976761985308</v>
+      </c>
+      <c r="N154">
         <f t="shared" si="6"/>
-        <v>123472.80635251199</v>
-      </c>
-      <c r="K154">
-        <f t="shared" si="7"/>
-        <v>23974.954919065531</v>
-      </c>
-      <c r="L154">
-        <f t="shared" si="7"/>
-        <v>69858.288045376088</v>
-      </c>
-      <c r="M154">
-        <f t="shared" si="7"/>
-        <v>91970.976761985308</v>
-      </c>
-      <c r="N154">
-        <f t="shared" si="5"/>
         <v>6964.1939763467708</v>
       </c>
     </row>
@@ -14177,23 +14218,23 @@
         <v>450.9</v>
       </c>
       <c r="J155">
+        <f t="shared" si="7"/>
+        <v>122156.44855884483</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="8"/>
+        <v>23501.01572053575</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="8"/>
+        <v>67692.383484587976</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="8"/>
+        <v>91606.673080241206</v>
+      </c>
+      <c r="N155">
         <f t="shared" si="6"/>
-        <v>122156.44855884483</v>
-      </c>
-      <c r="K155">
-        <f t="shared" si="7"/>
-        <v>23501.01572053575</v>
-      </c>
-      <c r="L155">
-        <f t="shared" si="7"/>
-        <v>67692.383484587976</v>
-      </c>
-      <c r="M155">
-        <f t="shared" si="7"/>
-        <v>91606.673080241206</v>
-      </c>
-      <c r="N155">
-        <f t="shared" si="5"/>
         <v>6022.9471251152008</v>
       </c>
     </row>
@@ -14220,23 +14261,23 @@
         <v>453.2</v>
       </c>
       <c r="J156">
+        <f t="shared" si="7"/>
+        <v>120488.09076517767</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="8"/>
+        <v>20267.076522005958</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="8"/>
+        <v>65353.478923799848</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="8"/>
+        <v>91005.369398497103</v>
+      </c>
+      <c r="N156">
         <f t="shared" si="6"/>
-        <v>120488.09076517767</v>
-      </c>
-      <c r="K156">
-        <f t="shared" si="7"/>
-        <v>20267.076522005958</v>
-      </c>
-      <c r="L156">
-        <f t="shared" si="7"/>
-        <v>65353.478923799848</v>
-      </c>
-      <c r="M156">
-        <f t="shared" si="7"/>
-        <v>91005.369398497103</v>
-      </c>
-      <c r="N156">
-        <f t="shared" si="5"/>
         <v>4721.7002738836109</v>
       </c>
     </row>
@@ -14263,23 +14304,23 @@
         <v>455.5</v>
       </c>
       <c r="J157">
+        <f t="shared" si="7"/>
+        <v>118687.7329715105</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="8"/>
+        <v>23173.137323476181</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="8"/>
+        <v>63680.574363011721</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="8"/>
+        <v>90711.065716753001</v>
+      </c>
+      <c r="N157">
         <f t="shared" si="6"/>
-        <v>118687.7329715105</v>
-      </c>
-      <c r="K157">
-        <f t="shared" si="7"/>
-        <v>23173.137323476181</v>
-      </c>
-      <c r="L157">
-        <f t="shared" si="7"/>
-        <v>63680.574363011721</v>
-      </c>
-      <c r="M157">
-        <f t="shared" si="7"/>
-        <v>90711.065716753001</v>
-      </c>
-      <c r="N157">
-        <f t="shared" si="5"/>
         <v>5910.4534226520145</v>
       </c>
     </row>
@@ -14306,23 +14347,23 @@
         <v>457.7</v>
       </c>
       <c r="J158">
+        <f t="shared" si="7"/>
+        <v>117631.21682104626</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="8"/>
+        <v>23443.717220534669</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="8"/>
+        <v>62444.578696170909</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="8"/>
+        <v>90532.383934215162</v>
+      </c>
+      <c r="N158">
         <f t="shared" si="6"/>
-        <v>117631.21682104626</v>
-      </c>
-      <c r="K158">
-        <f t="shared" si="7"/>
-        <v>23443.717220534669</v>
-      </c>
-      <c r="L158">
-        <f t="shared" si="7"/>
-        <v>62444.578696170909</v>
-      </c>
-      <c r="M158">
-        <f t="shared" si="7"/>
-        <v>90532.383934215162</v>
-      </c>
-      <c r="N158">
-        <f t="shared" si="5"/>
         <v>6733.1738258217993</v>
       </c>
     </row>
@@ -14349,23 +14390,23 @@
         <v>460</v>
       </c>
       <c r="J159">
+        <f t="shared" si="7"/>
+        <v>116462.85902737908</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="8"/>
+        <v>21199.778022004881</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="8"/>
+        <v>61832.674135382789</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="8"/>
+        <v>90051.08025247106</v>
+      </c>
+      <c r="N159">
         <f t="shared" si="6"/>
-        <v>116462.85902737908</v>
-      </c>
-      <c r="K159">
-        <f t="shared" si="7"/>
-        <v>21199.778022004881</v>
-      </c>
-      <c r="L159">
-        <f t="shared" si="7"/>
-        <v>61832.674135382789</v>
-      </c>
-      <c r="M159">
-        <f t="shared" si="7"/>
-        <v>90051.08025247106</v>
-      </c>
-      <c r="N159">
-        <f t="shared" si="5"/>
         <v>6571.9269745902302</v>
       </c>
     </row>
@@ -14392,23 +14433,23 @@
         <v>462.2</v>
       </c>
       <c r="J160">
+        <f t="shared" si="7"/>
+        <v>115530.34287691483</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="8"/>
+        <v>23520.357919063332</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="8"/>
+        <v>61222.678468541984</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="8"/>
+        <v>89844.398469933221</v>
+      </c>
+      <c r="N160">
         <f t="shared" si="6"/>
-        <v>115530.34287691483</v>
-      </c>
-      <c r="K160">
-        <f t="shared" si="7"/>
-        <v>23520.357919063332</v>
-      </c>
-      <c r="L160">
-        <f t="shared" si="7"/>
-        <v>61222.678468541984</v>
-      </c>
-      <c r="M160">
-        <f t="shared" si="7"/>
-        <v>89844.398469933221</v>
-      </c>
-      <c r="N160">
-        <f t="shared" si="5"/>
         <v>5774.647377760014</v>
       </c>
     </row>
@@ -14435,23 +14476,23 @@
         <v>464.9</v>
       </c>
       <c r="J161">
+        <f t="shared" si="7"/>
+        <v>114830.61851043599</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="8"/>
+        <v>21938.342338180541</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="8"/>
+        <v>60627.138331964612</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="8"/>
+        <v>89676.607191364063</v>
+      </c>
+      <c r="N161">
         <f t="shared" si="6"/>
-        <v>114830.61851043599</v>
-      </c>
-      <c r="K161">
-        <f t="shared" si="7"/>
-        <v>21938.342338180541</v>
-      </c>
-      <c r="L161">
-        <f t="shared" si="7"/>
-        <v>60627.138331964612</v>
-      </c>
-      <c r="M161">
-        <f t="shared" si="7"/>
-        <v>89676.607191364063</v>
-      </c>
-      <c r="N161">
-        <f t="shared" si="5"/>
         <v>7227.5315089229371</v>
       </c>
     </row>
@@ -14478,23 +14519,23 @@
         <v>467.1</v>
       </c>
       <c r="J162">
+        <f t="shared" si="7"/>
+        <v>113666.10235997174</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="8"/>
+        <v>21738.922235239021</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="8"/>
+        <v>60119.1426651238</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="8"/>
+        <v>89390.925408826224</v>
+      </c>
+      <c r="N162">
         <f t="shared" si="6"/>
-        <v>113666.10235997174</v>
-      </c>
-      <c r="K162">
-        <f t="shared" si="7"/>
-        <v>21738.922235239021</v>
-      </c>
-      <c r="L162">
-        <f t="shared" si="7"/>
-        <v>60119.1426651238</v>
-      </c>
-      <c r="M162">
-        <f t="shared" si="7"/>
-        <v>89390.925408826224</v>
-      </c>
-      <c r="N162">
-        <f t="shared" si="5"/>
         <v>5590.2519120927182</v>
       </c>
     </row>
@@ -14521,23 +14562,23 @@
         <v>469.4</v>
       </c>
       <c r="J163">
+        <f t="shared" si="7"/>
+        <v>112797.74456630458</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="8"/>
+        <v>21894.98303670924</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="8"/>
+        <v>59751.238104335673</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="8"/>
+        <v>89073.621727082122</v>
+      </c>
+      <c r="N163">
         <f t="shared" si="6"/>
-        <v>112797.74456630458</v>
-      </c>
-      <c r="K163">
-        <f t="shared" si="7"/>
-        <v>21894.98303670924</v>
-      </c>
-      <c r="L163">
-        <f t="shared" si="7"/>
-        <v>59751.238104335673</v>
-      </c>
-      <c r="M163">
-        <f t="shared" si="7"/>
-        <v>89073.621727082122</v>
-      </c>
-      <c r="N163">
-        <f t="shared" si="5"/>
         <v>7229.0050608611527</v>
       </c>
     </row>
@@ -14564,23 +14605,23 @@
         <v>472</v>
       </c>
       <c r="J164">
+        <f t="shared" si="7"/>
+        <v>112109.86184302864</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="8"/>
+        <v>22427.48655141468</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="8"/>
+        <v>59276.606861705623</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="8"/>
+        <v>89118.452347719227</v>
+      </c>
+      <c r="N164">
         <f t="shared" si="6"/>
-        <v>112109.86184302864</v>
-      </c>
-      <c r="K164">
-        <f t="shared" si="7"/>
-        <v>22427.48655141468</v>
-      </c>
-      <c r="L164">
-        <f t="shared" si="7"/>
-        <v>59276.606861705623</v>
-      </c>
-      <c r="M164">
-        <f t="shared" si="7"/>
-        <v>89118.452347719227</v>
-      </c>
-      <c r="N164">
-        <f t="shared" si="5"/>
         <v>7025.8564464254459</v>
       </c>
     </row>
@@ -14607,23 +14648,23 @@
         <v>474.3</v>
       </c>
       <c r="J165">
+        <f t="shared" si="7"/>
+        <v>111841.50404936148</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="8"/>
+        <v>19383.5473528849</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="8"/>
+        <v>59189.702300917503</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="8"/>
+        <v>88914.148665975124</v>
+      </c>
+      <c r="N165">
         <f t="shared" si="6"/>
-        <v>111841.50404936148</v>
-      </c>
-      <c r="K165">
-        <f t="shared" si="7"/>
-        <v>19383.5473528849</v>
-      </c>
-      <c r="L165">
-        <f t="shared" si="7"/>
-        <v>59189.702300917503</v>
-      </c>
-      <c r="M165">
-        <f t="shared" si="7"/>
-        <v>88914.148665975124</v>
-      </c>
-      <c r="N165">
-        <f t="shared" si="5"/>
         <v>6744.6095951938532</v>
       </c>
     </row>
@@ -14650,23 +14691,23 @@
         <v>476.5</v>
       </c>
       <c r="J166">
+        <f t="shared" si="7"/>
+        <v>111356.98789889723</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="8"/>
+        <v>17414.12724994338</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="8"/>
+        <v>58847.706634076683</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="8"/>
+        <v>88651.466883437286</v>
+      </c>
+      <c r="N166">
         <f t="shared" si="6"/>
-        <v>111356.98789889723</v>
-      </c>
-      <c r="K166">
-        <f t="shared" si="7"/>
-        <v>17414.12724994338</v>
-      </c>
-      <c r="L166">
-        <f t="shared" si="7"/>
-        <v>58847.706634076683</v>
-      </c>
-      <c r="M166">
-        <f t="shared" si="7"/>
-        <v>88651.466883437286</v>
-      </c>
-      <c r="N166">
-        <f t="shared" si="5"/>
         <v>6277.3299983636371</v>
       </c>
     </row>
@@ -14693,23 +14734,23 @@
         <v>478.8</v>
       </c>
       <c r="J167">
+        <f t="shared" si="7"/>
+        <v>111048.63010523007</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="8"/>
+        <v>22600.188051413599</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="8"/>
+        <v>58681.802073288563</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="8"/>
+        <v>88542.163201693184</v>
+      </c>
+      <c r="N167">
         <f t="shared" si="6"/>
-        <v>111048.63010523007</v>
-      </c>
-      <c r="K167">
-        <f t="shared" si="7"/>
-        <v>22600.188051413599</v>
-      </c>
-      <c r="L167">
-        <f t="shared" si="7"/>
-        <v>58681.802073288563</v>
-      </c>
-      <c r="M167">
-        <f t="shared" si="7"/>
-        <v>88542.163201693184</v>
-      </c>
-      <c r="N167">
-        <f t="shared" si="5"/>
         <v>7856.0831471320653</v>
       </c>
     </row>
@@ -14736,23 +14777,23 @@
         <v>481.1</v>
       </c>
       <c r="J168">
+        <f t="shared" si="7"/>
+        <v>110504.27231156289</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="8"/>
+        <v>20246.248852883811</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="8"/>
+        <v>58507.897512500436</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="8"/>
+        <v>88355.859519949081</v>
+      </c>
+      <c r="N168">
         <f t="shared" si="6"/>
-        <v>110504.27231156289</v>
-      </c>
-      <c r="K168">
-        <f t="shared" si="7"/>
-        <v>20246.248852883811</v>
-      </c>
-      <c r="L168">
-        <f t="shared" si="7"/>
-        <v>58507.897512500436</v>
-      </c>
-      <c r="M168">
-        <f t="shared" si="7"/>
-        <v>88355.859519949081</v>
-      </c>
-      <c r="N168">
-        <f t="shared" si="5"/>
         <v>7274.8362959004962</v>
       </c>
     </row>
@@ -14779,23 +14820,23 @@
         <v>483.4</v>
       </c>
       <c r="J169">
+        <f t="shared" si="7"/>
+        <v>110111.91451789573</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="8"/>
+        <v>22492.30965435403</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="8"/>
+        <v>58143.992951712309</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="8"/>
+        <v>88154.555838204978</v>
+      </c>
+      <c r="N169">
         <f t="shared" si="6"/>
-        <v>110111.91451789573</v>
-      </c>
-      <c r="K169">
-        <f t="shared" si="7"/>
-        <v>22492.30965435403</v>
-      </c>
-      <c r="L169">
-        <f t="shared" si="7"/>
-        <v>58143.992951712309</v>
-      </c>
-      <c r="M169">
-        <f t="shared" si="7"/>
-        <v>88154.555838204978</v>
-      </c>
-      <c r="N169">
-        <f t="shared" si="5"/>
         <v>6063.5894446689035</v>
       </c>
     </row>
@@ -14822,23 +14863,23 @@
         <v>486</v>
       </c>
       <c r="J170">
+        <f t="shared" si="7"/>
+        <v>109264.0317946198</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="8"/>
+        <v>20094.813169059478</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="8"/>
+        <v>58068.361709082259</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="8"/>
+        <v>87928.386458842084</v>
+      </c>
+      <c r="N170">
         <f t="shared" si="6"/>
-        <v>109264.0317946198</v>
-      </c>
-      <c r="K170">
-        <f t="shared" si="7"/>
-        <v>20094.813169059478</v>
-      </c>
-      <c r="L170">
-        <f t="shared" si="7"/>
-        <v>58068.361709082259</v>
-      </c>
-      <c r="M170">
-        <f t="shared" si="7"/>
-        <v>87928.386458842084</v>
-      </c>
-      <c r="N170">
-        <f t="shared" si="5"/>
         <v>6550.4408302332031</v>
       </c>
     </row>
@@ -14865,23 +14906,23 @@
         <v>488.2</v>
       </c>
       <c r="J171">
+        <f t="shared" si="7"/>
+        <v>109323.51564415556</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="8"/>
+        <v>20565.393066117958</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="8"/>
+        <v>57617.366042241447</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="8"/>
+        <v>87842.704676304245</v>
+      </c>
+      <c r="N171">
         <f t="shared" si="6"/>
-        <v>109323.51564415556</v>
-      </c>
-      <c r="K171">
-        <f t="shared" si="7"/>
-        <v>20565.393066117958</v>
-      </c>
-      <c r="L171">
-        <f t="shared" si="7"/>
-        <v>57617.366042241447</v>
-      </c>
-      <c r="M171">
-        <f t="shared" si="7"/>
-        <v>87842.704676304245</v>
-      </c>
-      <c r="N171">
-        <f t="shared" si="5"/>
         <v>7043.1612334029896</v>
       </c>
     </row>
@@ -14908,23 +14949,23 @@
         <v>490.5</v>
       </c>
       <c r="J172">
+        <f t="shared" si="7"/>
+        <v>108371.15785048839</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="8"/>
+        <v>20551.453867588181</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="8"/>
+        <v>57796.46148145332</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="8"/>
+        <v>87752.400994560143</v>
+      </c>
+      <c r="N172">
         <f t="shared" si="6"/>
-        <v>108371.15785048839</v>
-      </c>
-      <c r="K172">
-        <f t="shared" si="7"/>
-        <v>20551.453867588181</v>
-      </c>
-      <c r="L172">
-        <f t="shared" si="7"/>
-        <v>57796.46148145332</v>
-      </c>
-      <c r="M172">
-        <f t="shared" si="7"/>
-        <v>87752.400994560143</v>
-      </c>
-      <c r="N172">
-        <f t="shared" si="5"/>
         <v>6581.9143821714151</v>
       </c>
     </row>
@@ -14951,23 +14992,23 @@
         <v>492.8</v>
       </c>
       <c r="J173">
+        <f t="shared" si="7"/>
+        <v>108202.80005682122</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="8"/>
+        <v>18067.51466905839</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="8"/>
+        <v>57424.5569206652</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="8"/>
+        <v>87515.09731281604</v>
+      </c>
+      <c r="N173">
         <f t="shared" si="6"/>
-        <v>108202.80005682122</v>
-      </c>
-      <c r="K173">
-        <f t="shared" si="7"/>
-        <v>18067.51466905839</v>
-      </c>
-      <c r="L173">
-        <f t="shared" si="7"/>
-        <v>57424.5569206652</v>
-      </c>
-      <c r="M173">
-        <f t="shared" si="7"/>
-        <v>87515.09731281604</v>
-      </c>
-      <c r="N173">
-        <f t="shared" si="5"/>
         <v>6420.6675309398224</v>
       </c>
     </row>
@@ -14994,23 +15035,23 @@
         <v>495</v>
       </c>
       <c r="J174">
+        <f t="shared" si="7"/>
+        <v>107990.28390635697</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="8"/>
+        <v>22248.094566116852</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="8"/>
+        <v>57509.561253824388</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="8"/>
+        <v>87557.415530278202</v>
+      </c>
+      <c r="N174">
         <f t="shared" si="6"/>
-        <v>107990.28390635697</v>
-      </c>
-      <c r="K174">
-        <f t="shared" si="7"/>
-        <v>22248.094566116852</v>
-      </c>
-      <c r="L174">
-        <f t="shared" si="7"/>
-        <v>57509.561253824388</v>
-      </c>
-      <c r="M174">
-        <f t="shared" si="7"/>
-        <v>87557.415530278202</v>
-      </c>
-      <c r="N174">
-        <f t="shared" si="5"/>
         <v>7993.387934109609</v>
       </c>
     </row>
@@ -15037,23 +15078,23 @@
         <v>497.6</v>
       </c>
       <c r="J175">
+        <f t="shared" si="7"/>
+        <v>107534.40118308105</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="8"/>
+        <v>21290.598080822321</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="8"/>
+        <v>57445.93001119433</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="8"/>
+        <v>87319.246150915307</v>
+      </c>
+      <c r="N175">
         <f t="shared" si="6"/>
-        <v>107534.40118308105</v>
-      </c>
-      <c r="K175">
-        <f t="shared" si="7"/>
-        <v>21290.598080822321</v>
-      </c>
-      <c r="L175">
-        <f t="shared" si="7"/>
-        <v>57445.93001119433</v>
-      </c>
-      <c r="M175">
-        <f t="shared" si="7"/>
-        <v>87319.246150915307</v>
-      </c>
-      <c r="N175">
-        <f t="shared" si="5"/>
         <v>7310.239319673924</v>
       </c>
     </row>
@@ -15080,23 +15121,23 @@
         <v>499.9</v>
       </c>
       <c r="J176">
+        <f t="shared" si="7"/>
+        <v>107378.04338941387</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="8"/>
+        <v>20076.658882292541</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="8"/>
+        <v>57443.02545040621</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="8"/>
+        <v>87195.942469171205</v>
+      </c>
+      <c r="N176">
         <f t="shared" si="6"/>
-        <v>107378.04338941387</v>
-      </c>
-      <c r="K176">
-        <f t="shared" si="7"/>
-        <v>20076.658882292541</v>
-      </c>
-      <c r="L176">
-        <f t="shared" si="7"/>
-        <v>57443.02545040621</v>
-      </c>
-      <c r="M176">
-        <f t="shared" si="7"/>
-        <v>87195.942469171205</v>
-      </c>
-      <c r="N176">
-        <f t="shared" si="5"/>
         <v>7448.9924684423377</v>
       </c>
     </row>
@@ -15123,23 +15164,23 @@
         <v>502.2</v>
       </c>
       <c r="J177">
+        <f t="shared" si="7"/>
+        <v>106821.68559574671</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="8"/>
+        <v>22442.71968376276</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="8"/>
+        <v>57063.120889618091</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="8"/>
+        <v>87178.638787427102</v>
+      </c>
+      <c r="N177">
         <f t="shared" si="6"/>
-        <v>106821.68559574671</v>
-      </c>
-      <c r="K177">
-        <f t="shared" si="7"/>
-        <v>22442.71968376276</v>
-      </c>
-      <c r="L177">
-        <f t="shared" si="7"/>
-        <v>57063.120889618091</v>
-      </c>
-      <c r="M177">
-        <f t="shared" si="7"/>
-        <v>87178.638787427102</v>
-      </c>
-      <c r="N177">
-        <f t="shared" si="5"/>
         <v>7857.7456172107468</v>
       </c>
     </row>
@@ -15166,23 +15207,23 @@
         <v>504.4</v>
       </c>
       <c r="J178">
+        <f t="shared" si="7"/>
+        <v>106661.16944528246</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="8"/>
+        <v>21453.29958082124</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="8"/>
+        <v>57195.125222777271</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="8"/>
+        <v>86945.957004889264</v>
+      </c>
+      <c r="N178">
         <f t="shared" si="6"/>
-        <v>106661.16944528246</v>
-      </c>
-      <c r="K178">
-        <f t="shared" si="7"/>
-        <v>21453.29958082124</v>
-      </c>
-      <c r="L178">
-        <f t="shared" si="7"/>
-        <v>57195.125222777271</v>
-      </c>
-      <c r="M178">
-        <f t="shared" si="7"/>
-        <v>86945.957004889264</v>
-      </c>
-      <c r="N178">
-        <f t="shared" si="5"/>
         <v>7150.4660203805279</v>
       </c>
     </row>
@@ -15209,23 +15250,23 @@
         <v>506.7</v>
       </c>
       <c r="J179">
+        <f t="shared" si="7"/>
+        <v>106456.81165161529</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="8"/>
+        <v>20549.36038229143</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="8"/>
+        <v>56779.220661989151</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="8"/>
+        <v>86950.653323145161</v>
+      </c>
+      <c r="N179">
         <f t="shared" si="6"/>
-        <v>106456.81165161529</v>
-      </c>
-      <c r="K179">
-        <f t="shared" si="7"/>
-        <v>20549.36038229143</v>
-      </c>
-      <c r="L179">
-        <f t="shared" si="7"/>
-        <v>56779.220661989151</v>
-      </c>
-      <c r="M179">
-        <f t="shared" si="7"/>
-        <v>86950.653323145161</v>
-      </c>
-      <c r="N179">
-        <f t="shared" si="5"/>
         <v>5459.2191691489352</v>
       </c>
     </row>
@@ -15252,23 +15293,23 @@
         <v>509</v>
       </c>
       <c r="J180">
+        <f t="shared" si="7"/>
+        <v>106164.45385794813</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="8"/>
+        <v>19285.421183761639</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="8"/>
+        <v>56757.316101201024</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="8"/>
+        <v>86900.349641401059</v>
+      </c>
+      <c r="N180">
         <f t="shared" si="6"/>
-        <v>106164.45385794813</v>
-      </c>
-      <c r="K180">
-        <f t="shared" si="7"/>
-        <v>19285.421183761639</v>
-      </c>
-      <c r="L180">
-        <f t="shared" si="7"/>
-        <v>56757.316101201024</v>
-      </c>
-      <c r="M180">
-        <f t="shared" si="7"/>
-        <v>86900.349641401059</v>
-      </c>
-      <c r="N180">
-        <f t="shared" si="5"/>
         <v>6227.9723179173661</v>
       </c>
     </row>
@@ -15295,23 +15336,23 @@
         <v>511.6</v>
       </c>
       <c r="J181">
+        <f t="shared" si="7"/>
+        <v>105664.57113467221</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="8"/>
+        <v>21427.924698467119</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="8"/>
+        <v>56556.684858570974</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="8"/>
+        <v>86651.180262038164</v>
+      </c>
+      <c r="N181">
         <f t="shared" si="6"/>
-        <v>105664.57113467221</v>
-      </c>
-      <c r="K181">
-        <f t="shared" si="7"/>
-        <v>21427.924698467119</v>
-      </c>
-      <c r="L181">
-        <f t="shared" si="7"/>
-        <v>56556.684858570974</v>
-      </c>
-      <c r="M181">
-        <f t="shared" si="7"/>
-        <v>86651.180262038164</v>
-      </c>
-      <c r="N181">
-        <f t="shared" si="5"/>
         <v>6594.8237034816575</v>
       </c>
     </row>
@@ -15338,23 +15379,23 @@
         <v>513.5</v>
       </c>
       <c r="J182">
+        <f t="shared" si="7"/>
+        <v>105707.57991381672</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="8"/>
+        <v>19812.061882290342</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="8"/>
+        <v>56449.415873572085</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="8"/>
+        <v>86563.364177119118</v>
+      </c>
+      <c r="N182">
         <f t="shared" si="6"/>
-        <v>105707.57991381672</v>
-      </c>
-      <c r="K182">
-        <f t="shared" si="7"/>
-        <v>19812.061882290342</v>
-      </c>
-      <c r="L182">
-        <f t="shared" si="7"/>
-        <v>56449.415873572085</v>
-      </c>
-      <c r="M182">
-        <f t="shared" si="7"/>
-        <v>86563.364177119118</v>
-      </c>
-      <c r="N182">
-        <f t="shared" si="5"/>
         <v>7129.4458698555782</v>
       </c>
     </row>
@@ -15381,23 +15422,23 @@
         <v>516.1</v>
       </c>
       <c r="J183">
+        <f t="shared" si="7"/>
+        <v>104927.69719054078</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="8"/>
+        <v>16304.565396995789</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="8"/>
+        <v>56143.784630942035</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="8"/>
+        <v>86486.194797756223</v>
+      </c>
+      <c r="N183">
         <f t="shared" si="6"/>
-        <v>104927.69719054078</v>
-      </c>
-      <c r="K183">
-        <f t="shared" si="7"/>
-        <v>16304.565396995789</v>
-      </c>
-      <c r="L183">
-        <f t="shared" si="7"/>
-        <v>56143.784630942035</v>
-      </c>
-      <c r="M183">
-        <f t="shared" si="7"/>
-        <v>86486.194797756223</v>
-      </c>
-      <c r="N183">
-        <f t="shared" si="5"/>
         <v>7016.297255419875</v>
       </c>
     </row>
@@ -15424,23 +15465,23 @@
         <v>518.4</v>
       </c>
       <c r="J184">
+        <f t="shared" si="7"/>
+        <v>104859.33939687362</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="8"/>
+        <v>19910.626198466009</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="8"/>
+        <v>56106.880070153915</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="8"/>
+        <v>86420.891116012121</v>
+      </c>
+      <c r="N184">
         <f t="shared" si="6"/>
-        <v>104859.33939687362</v>
-      </c>
-      <c r="K184">
-        <f t="shared" si="7"/>
-        <v>19910.626198466009</v>
-      </c>
-      <c r="L184">
-        <f t="shared" si="7"/>
-        <v>56106.880070153915</v>
-      </c>
-      <c r="M184">
-        <f t="shared" si="7"/>
-        <v>86420.891116012121</v>
-      </c>
-      <c r="N184">
-        <f t="shared" si="5"/>
         <v>5955.050404188285</v>
       </c>
     </row>
@@ -15467,23 +15508,23 @@
         <v>520.70000000000005</v>
       </c>
       <c r="J185">
+        <f t="shared" si="7"/>
+        <v>104650.98160320646</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="8"/>
+        <v>19296.686999936221</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="8"/>
+        <v>55828.975509365788</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="8"/>
+        <v>86236.587434268018</v>
+      </c>
+      <c r="N185">
         <f t="shared" si="6"/>
-        <v>104650.98160320646</v>
-      </c>
-      <c r="K185">
-        <f t="shared" si="7"/>
-        <v>19296.686999936221</v>
-      </c>
-      <c r="L185">
-        <f t="shared" si="7"/>
-        <v>55828.975509365788</v>
-      </c>
-      <c r="M185">
-        <f t="shared" si="7"/>
-        <v>86236.587434268018</v>
-      </c>
-      <c r="N185">
-        <f t="shared" si="5"/>
         <v>7053.8035529567096</v>
       </c>
     </row>
@@ -15510,23 +15551,23 @@
         <v>523.29999999999995</v>
       </c>
       <c r="J186">
+        <f t="shared" si="7"/>
+        <v>104139.09887993053</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="8"/>
+        <v>18949.190514641701</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="8"/>
+        <v>55897.34426673573</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="8"/>
+        <v>86272.418054905123</v>
+      </c>
+      <c r="N186">
         <f t="shared" si="6"/>
-        <v>104139.09887993053</v>
-      </c>
-      <c r="K186">
-        <f t="shared" si="7"/>
-        <v>18949.190514641701</v>
-      </c>
-      <c r="L186">
-        <f t="shared" si="7"/>
-        <v>55897.34426673573</v>
-      </c>
-      <c r="M186">
-        <f t="shared" si="7"/>
-        <v>86272.418054905123</v>
-      </c>
-      <c r="N186">
-        <f t="shared" si="5"/>
         <v>6880.6549385209892</v>
       </c>
     </row>
@@ -15553,23 +15594,23 @@
         <v>525.6</v>
       </c>
       <c r="J187">
+        <f t="shared" si="7"/>
+        <v>104130.74108626336</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="8"/>
+        <v>16565.25131611191</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="8"/>
+        <v>55811.43970594761</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="8"/>
+        <v>86264.114373161021</v>
+      </c>
+      <c r="N187">
         <f t="shared" si="6"/>
-        <v>104130.74108626336</v>
-      </c>
-      <c r="K187">
-        <f t="shared" si="7"/>
-        <v>16565.25131611191</v>
-      </c>
-      <c r="L187">
-        <f t="shared" si="7"/>
-        <v>55811.43970594761</v>
-      </c>
-      <c r="M187">
-        <f t="shared" si="7"/>
-        <v>86264.114373161021</v>
-      </c>
-      <c r="N187">
-        <f t="shared" si="5"/>
         <v>8849.4080872894356</v>
       </c>
     </row>
@@ -15596,23 +15637,23 @@
         <v>527.79999999999995</v>
       </c>
       <c r="J188">
+        <f t="shared" si="7"/>
+        <v>104118.22493579911</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="8"/>
+        <v>17835.831213170401</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="8"/>
+        <v>55812.444039106798</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="8"/>
+        <v>86078.432590623182</v>
+      </c>
+      <c r="N188">
         <f t="shared" si="6"/>
-        <v>104118.22493579911</v>
-      </c>
-      <c r="K188">
-        <f t="shared" si="7"/>
-        <v>17835.831213170401</v>
-      </c>
-      <c r="L188">
-        <f t="shared" si="7"/>
-        <v>55812.444039106798</v>
-      </c>
-      <c r="M188">
-        <f t="shared" si="7"/>
-        <v>86078.432590623182</v>
-      </c>
-      <c r="N188">
-        <f t="shared" si="5"/>
         <v>8082.1284904592076</v>
       </c>
     </row>
@@ -15639,23 +15680,23 @@
         <v>530.1</v>
       </c>
       <c r="J189">
+        <f t="shared" si="7"/>
+        <v>103573.86714213195</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="8"/>
+        <v>18381.89201464058</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="8"/>
+        <v>55661.539478318671</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="8"/>
+        <v>86131.12890887908</v>
+      </c>
+      <c r="N189">
         <f t="shared" si="6"/>
-        <v>103573.86714213195</v>
-      </c>
-      <c r="K189">
-        <f t="shared" si="7"/>
-        <v>18381.89201464058</v>
-      </c>
-      <c r="L189">
-        <f t="shared" si="7"/>
-        <v>55661.539478318671</v>
-      </c>
-      <c r="M189">
-        <f t="shared" si="7"/>
-        <v>86131.12890887908</v>
-      </c>
-      <c r="N189">
-        <f t="shared" si="5"/>
         <v>8850.8816392276312</v>
       </c>
     </row>
@@ -15682,23 +15723,23 @@
         <v>532.4</v>
       </c>
       <c r="J190">
+        <f t="shared" si="7"/>
+        <v>103549.50934846478</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="8"/>
+        <v>18347.952816110832</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="8"/>
+        <v>55741.634917530551</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="8"/>
+        <v>85963.825227134977</v>
+      </c>
+      <c r="N190">
         <f t="shared" si="6"/>
-        <v>103549.50934846478</v>
-      </c>
-      <c r="K190">
-        <f t="shared" si="7"/>
-        <v>18347.952816110832</v>
-      </c>
-      <c r="L190">
-        <f t="shared" si="7"/>
-        <v>55741.634917530551</v>
-      </c>
-      <c r="M190">
-        <f t="shared" si="7"/>
-        <v>85963.825227134977</v>
-      </c>
-      <c r="N190">
-        <f t="shared" si="5"/>
         <v>7279.6347879960394</v>
       </c>
     </row>
@@ -15725,23 +15766,23 @@
         <v>534.70000000000005</v>
       </c>
       <c r="J191">
+        <f t="shared" si="7"/>
+        <v>103225.15155479762</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="8"/>
+        <v>16624.013617581011</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="8"/>
+        <v>55576.730356742424</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="8"/>
+        <v>85858.521545390875</v>
+      </c>
+      <c r="N191">
         <f t="shared" si="6"/>
-        <v>103225.15155479762</v>
-      </c>
-      <c r="K191">
-        <f t="shared" si="7"/>
-        <v>16624.013617581011</v>
-      </c>
-      <c r="L191">
-        <f t="shared" si="7"/>
-        <v>55576.730356742424</v>
-      </c>
-      <c r="M191">
-        <f t="shared" si="7"/>
-        <v>85858.521545390875</v>
-      </c>
-      <c r="N191">
-        <f t="shared" si="5"/>
         <v>7658.387936764464</v>
       </c>
     </row>
@@ -15768,23 +15809,23 @@
         <v>537.20000000000005</v>
       </c>
       <c r="J192">
+        <f t="shared" si="7"/>
+        <v>103209.1104747246</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="8"/>
+        <v>17951.03622787472</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="8"/>
+        <v>55186.008008059682</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="8"/>
+        <v>85819.974065234244</v>
+      </c>
+      <c r="N192">
         <f t="shared" si="6"/>
-        <v>103209.1104747246</v>
-      </c>
-      <c r="K192">
-        <f t="shared" si="7"/>
-        <v>17951.03622787472</v>
-      </c>
-      <c r="L192">
-        <f t="shared" si="7"/>
-        <v>55186.008008059682</v>
-      </c>
-      <c r="M192">
-        <f t="shared" si="7"/>
-        <v>85819.974065234244</v>
-      </c>
-      <c r="N192">
-        <f t="shared" si="5"/>
         <v>7809.206576730141</v>
       </c>
     </row>
@@ -15811,23 +15852,23 @@
         <v>539.5</v>
       </c>
       <c r="J193">
+        <f t="shared" si="7"/>
+        <v>102820.75268105743</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="8"/>
+        <v>16757.097029344972</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="8"/>
+        <v>55128.103447271562</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="8"/>
+        <v>85841.670383490142</v>
+      </c>
+      <c r="N193">
         <f t="shared" si="6"/>
-        <v>102820.75268105743</v>
-      </c>
-      <c r="K193">
-        <f t="shared" si="7"/>
-        <v>16757.097029344972</v>
-      </c>
-      <c r="L193">
-        <f t="shared" si="7"/>
-        <v>55128.103447271562</v>
-      </c>
-      <c r="M193">
-        <f t="shared" si="7"/>
-        <v>85841.670383490142</v>
-      </c>
-      <c r="N193">
-        <f t="shared" si="5"/>
         <v>9207.9597254985511</v>
       </c>
     </row>
@@ -15854,23 +15895,23 @@
         <v>541.70000000000005</v>
       </c>
       <c r="J194">
+        <f t="shared" si="7"/>
+        <v>102640.23653059319</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="8"/>
+        <v>15687.676926403419</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="8"/>
+        <v>55139.10778043075</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="8"/>
+        <v>85831.988600952303</v>
+      </c>
+      <c r="N194">
         <f t="shared" si="6"/>
-        <v>102640.23653059319</v>
-      </c>
-      <c r="K194">
-        <f t="shared" si="7"/>
-        <v>15687.676926403419</v>
-      </c>
-      <c r="L194">
-        <f t="shared" si="7"/>
-        <v>55139.10778043075</v>
-      </c>
-      <c r="M194">
-        <f t="shared" si="7"/>
-        <v>85831.988600952303</v>
-      </c>
-      <c r="N194">
-        <f t="shared" si="5"/>
         <v>7420.6801286683321</v>
       </c>
     </row>
@@ -15897,23 +15938,23 @@
         <v>544</v>
       </c>
       <c r="J195">
+        <f t="shared" si="7"/>
+        <v>102707.87873692602</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="8"/>
+        <v>12413.737727873642</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="8"/>
+        <v>55160.203219642623</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="8"/>
+        <v>85677.684919208201</v>
+      </c>
+      <c r="N195">
         <f t="shared" si="6"/>
-        <v>102707.87873692602</v>
-      </c>
-      <c r="K195">
-        <f t="shared" si="7"/>
-        <v>12413.737727873642</v>
-      </c>
-      <c r="L195">
-        <f t="shared" si="7"/>
-        <v>55160.203219642623</v>
-      </c>
-      <c r="M195">
-        <f t="shared" si="7"/>
-        <v>85677.684919208201</v>
-      </c>
-      <c r="N195">
-        <f t="shared" si="5"/>
         <v>9179.4332774367449</v>
       </c>
     </row>
@@ -15940,23 +15981,23 @@
         <v>546.6</v>
       </c>
       <c r="J196">
+        <f t="shared" si="7"/>
+        <v>102623.99601365009</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="8"/>
+        <v>16846.241242579119</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="8"/>
+        <v>55202.571977012572</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="8"/>
+        <v>85644.515539845306</v>
+      </c>
+      <c r="N196">
         <f t="shared" si="6"/>
-        <v>102623.99601365009</v>
-      </c>
-      <c r="K196">
-        <f t="shared" si="7"/>
-        <v>16846.241242579119</v>
-      </c>
-      <c r="L196">
-        <f t="shared" si="7"/>
-        <v>55202.571977012572</v>
-      </c>
-      <c r="M196">
-        <f t="shared" si="7"/>
-        <v>85644.515539845306</v>
-      </c>
-      <c r="N196">
-        <f t="shared" si="5"/>
         <v>8706.2846630010608</v>
       </c>
     </row>
@@ -15983,23 +16024,23 @@
         <v>548.79999999999995</v>
       </c>
       <c r="J197">
+        <f t="shared" si="7"/>
+        <v>102427.47986318584</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="8"/>
+        <v>18356.82113963757</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="8"/>
+        <v>55068.57631017176</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="8"/>
+        <v>85731.833757307468</v>
+      </c>
+      <c r="N197">
         <f t="shared" si="6"/>
-        <v>102427.47986318584</v>
-      </c>
-      <c r="K197">
-        <f t="shared" si="7"/>
-        <v>18356.82113963757</v>
-      </c>
-      <c r="L197">
-        <f t="shared" si="7"/>
-        <v>55068.57631017176</v>
-      </c>
-      <c r="M197">
-        <f t="shared" si="7"/>
-        <v>85731.833757307468</v>
-      </c>
-      <c r="N197">
-        <f t="shared" si="5"/>
         <v>8239.0050661708483</v>
       </c>
     </row>
@@ -16026,23 +16067,23 @@
         <v>551.1</v>
       </c>
       <c r="J198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102691.12206951868</v>
       </c>
       <c r="K198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19272.881941107789</v>
       </c>
       <c r="L198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55126.671749383633</v>
       </c>
       <c r="M198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>85615.530075563365</v>
       </c>
       <c r="N198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7927.7582149392565</v>
       </c>
     </row>
@@ -16069,23 +16110,23 @@
         <v>553.4</v>
       </c>
       <c r="J199">
-        <f t="shared" ref="J199:J219" si="8">B195*J$2+J$3</f>
+        <f t="shared" ref="J199:J219" si="9">B195*J$2+J$3</f>
         <v>102138.76427585151</v>
       </c>
       <c r="K199">
-        <f t="shared" ref="K199:N219" si="9">C195*K$2+K$3</f>
+        <f t="shared" ref="K199:N219" si="10">C195*K$2+K$3</f>
         <v>17008.942742578001</v>
       </c>
       <c r="L199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54964.767188595513</v>
       </c>
       <c r="M199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85554.226393819263</v>
       </c>
       <c r="N199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9566.5113637076647</v>
       </c>
     </row>
@@ -16112,23 +16153,23 @@
         <v>555.6</v>
       </c>
       <c r="J200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102002.24812538727</v>
       </c>
       <c r="K200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18029.52263963646</v>
       </c>
       <c r="L200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54958.771521754694</v>
       </c>
       <c r="M200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85493.544611281424</v>
       </c>
       <c r="N200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8229.2317668774685</v>
       </c>
     </row>
@@ -16155,23 +16196,23 @@
         <v>557.9</v>
       </c>
       <c r="J201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101809.8903317201</v>
       </c>
       <c r="K201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15295.583441106701</v>
       </c>
       <c r="L201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54840.866960966574</v>
       </c>
       <c r="M201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85441.240929537322</v>
       </c>
       <c r="N201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9417.9849156458768</v>
       </c>
     </row>
@@ -16198,23 +16239,23 @@
         <v>560.5</v>
       </c>
       <c r="J202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101878.00760844417</v>
       </c>
       <c r="K202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18228.086955812149</v>
       </c>
       <c r="L202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54945.235718336524</v>
       </c>
       <c r="M202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85425.071550174427</v>
       </c>
       <c r="N202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9214.8363012101727</v>
       </c>
     </row>
@@ -16241,23 +16282,23 @@
         <v>562.4</v>
       </c>
       <c r="J203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101897.01638758869</v>
       </c>
       <c r="K203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13802.224139635369</v>
       </c>
       <c r="L203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54678.966733337635</v>
       </c>
       <c r="M203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85406.255465255381</v>
       </c>
       <c r="N203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6959.4584675840933</v>
       </c>
     </row>
@@ -16284,23 +16325,23 @@
         <v>564.70000000000005</v>
       </c>
       <c r="J204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101996.65859392151</v>
       </c>
       <c r="K204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15108.28494110559</v>
       </c>
       <c r="L204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54856.062172549515</v>
       </c>
       <c r="M204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85365.951783511278</v>
       </c>
       <c r="N204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8478.2116163524952</v>
       </c>
     </row>
@@ -16327,23 +16368,23 @@
         <v>567.29999999999995</v>
       </c>
       <c r="J205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101968.77587064559</v>
       </c>
       <c r="K205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16810.788455811071</v>
       </c>
       <c r="L205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54772.430929919457</v>
       </c>
       <c r="M205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85413.782404148384</v>
       </c>
       <c r="N205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9475.0630019167984</v>
       </c>
     </row>
@@ -16370,23 +16411,23 @@
         <v>569.6</v>
       </c>
       <c r="J206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101688.41807697843</v>
       </c>
       <c r="K206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14626.849257281279</v>
       </c>
       <c r="L206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54907.526369131338</v>
       </c>
       <c r="M206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85365.478722404281</v>
       </c>
       <c r="N206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7813.816150685223</v>
       </c>
     </row>
@@ -16413,23 +16454,23 @@
         <v>571.79999999999995</v>
       </c>
       <c r="J207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101443.90192651417</v>
       </c>
       <c r="K207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14257.429154339739</v>
       </c>
       <c r="L207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54844.530702290518</v>
       </c>
       <c r="M207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85337.796939866443</v>
       </c>
       <c r="N207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8636.5365538550104</v>
       </c>
     </row>
@@ -16456,23 +16497,23 @@
         <v>574.1</v>
       </c>
       <c r="J208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102039.544132847</v>
       </c>
       <c r="K208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12223.48995580995</v>
       </c>
       <c r="L208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54936.626141502398</v>
       </c>
       <c r="M208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85447.49325812234</v>
       </c>
       <c r="N208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8955.2897026234132</v>
       </c>
     </row>
@@ -16499,23 +16540,23 @@
         <v>576.70000000000005</v>
       </c>
       <c r="J209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101619.66140957108</v>
       </c>
       <c r="K209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16295.99347051543</v>
       </c>
       <c r="L209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54845.994898872341</v>
       </c>
       <c r="M209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85269.323878759446</v>
       </c>
       <c r="N209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9022.1410881877346</v>
       </c>
     </row>
@@ -16542,23 +16583,23 @@
         <v>578.9</v>
       </c>
       <c r="J210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101763.14525910684</v>
       </c>
       <c r="K210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13576.573367573879</v>
       </c>
       <c r="L210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54878.999232031529</v>
       </c>
       <c r="M210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85373.642096221607</v>
       </c>
       <c r="N210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10264.861491357522</v>
       </c>
     </row>
@@ -16585,23 +16626,23 @@
         <v>581.20000000000005</v>
       </c>
       <c r="J211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101570.78746543967</v>
       </c>
       <c r="K211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13792.63416904409</v>
       </c>
       <c r="L211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55034.094671243409</v>
       </c>
       <c r="M211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85271.338414477505</v>
       </c>
       <c r="N211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8693.614640125923</v>
       </c>
     </row>
@@ -16628,23 +16669,23 @@
         <v>583.4</v>
       </c>
       <c r="J212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101342.27131497543</v>
       </c>
       <c r="K212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13733.214066102581</v>
       </c>
       <c r="L212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54884.099004402597</v>
       </c>
       <c r="M212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85349.656631939666</v>
       </c>
       <c r="N212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9366.3350432957159</v>
       </c>
     </row>
@@ -16671,23 +16712,23 @@
         <v>585.70000000000005</v>
       </c>
       <c r="J213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101437.91352130825</v>
       </c>
       <c r="K213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15949.274867572771</v>
       </c>
       <c r="L213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55034.194443614469</v>
       </c>
       <c r="M213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85373.352950195564</v>
       </c>
       <c r="N213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10045.08819206414</v>
       </c>
     </row>
@@ -16714,23 +16755,23 @@
         <v>588.29999999999995</v>
       </c>
       <c r="J214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101686.03079803233</v>
       </c>
       <c r="K214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15001.778382278249</v>
       </c>
       <c r="L214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55115.563200984419</v>
       </c>
       <c r="M214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85396.183570832669</v>
       </c>
       <c r="N214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9781.9395776284437</v>
       </c>
     </row>
@@ -16757,23 +16798,23 @@
         <v>590.20000000000005</v>
       </c>
       <c r="J215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101333.03957717684</v>
       </c>
       <c r="K215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13045.915566101459</v>
       </c>
       <c r="L215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55046.29421598553</v>
       </c>
       <c r="M215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85359.367485913623</v>
       </c>
       <c r="N215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9686.5617440023525</v>
       </c>
     </row>
@@ -16782,23 +16823,23 @@
         <v>592.5</v>
       </c>
       <c r="J216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101164.68178350967</v>
       </c>
       <c r="K216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13441.976367571689</v>
       </c>
       <c r="L216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55177.38965519741</v>
       </c>
       <c r="M216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85249.06380416952</v>
       </c>
       <c r="N216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9735.3148927707662</v>
       </c>
     </row>
@@ -16807,23 +16848,23 @@
         <v>595</v>
       </c>
       <c r="J217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101156.64070343667</v>
       </c>
       <c r="K217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15138.998977865391</v>
       </c>
       <c r="L217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55257.667306514668</v>
       </c>
       <c r="M217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85214.51632401289</v>
       </c>
       <c r="N217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9616.1335327364159</v>
       </c>
     </row>
@@ -16832,23 +16873,23 @@
         <v>597.29999999999995</v>
       </c>
       <c r="J218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101272.28290976949</v>
       </c>
       <c r="K218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14245.059779335619</v>
       </c>
       <c r="L218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55446.762745726541</v>
       </c>
       <c r="M218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85341.212642268787</v>
       </c>
       <c r="N218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11374.886681504846</v>
       </c>
     </row>
@@ -16857,23 +16898,23 @@
         <v>599.6</v>
       </c>
       <c r="J219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101367.92511610233</v>
       </c>
       <c r="K219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15871.120580805829</v>
       </c>
       <c r="L219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55429.858184938421</v>
       </c>
       <c r="M219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85293.908960524685</v>
       </c>
       <c r="N219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8453.6398302732778</v>
       </c>
     </row>
